--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="208">
   <si>
     <t>ID Code</t>
   </si>
@@ -97,9 +97,6 @@
     <t>E. Enemies</t>
   </si>
   <si>
-    <t>Humanoid | Creatures | Main Boss (Scientist) |</t>
-  </si>
-  <si>
     <t>F. Level Design</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Old Coffee Machine | Therapy Bed | Old Pill Shelf | Toys | Stuffed Animals | Clocks | Clipboard | Pencils | Papers | Fire Extinguisher |</t>
   </si>
   <si>
-    <t xml:space="preserve">Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Broken stairs | Broken Elevator | </t>
-  </si>
-  <si>
     <t>G. Particles</t>
   </si>
   <si>
@@ -638,6 +632,15 @@
   </si>
   <si>
     <t>EnemyMovement | InspectObjects | Light Flicker | Hallucinations | UI Manager | DoorOpenClose | AirVent | Environment Events |</t>
+  </si>
+  <si>
+    <t>Humanoid | Creatures | Main Boss (Scientist) | Smiley</t>
+  </si>
+  <si>
+    <t>Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Broken stairs | Broken Elevator | Piano |</t>
+  </si>
+  <si>
+    <t>F_Pi_01</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J362" sqref="J362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,13 +1174,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1198,13 +1201,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="1">
@@ -1225,13 +1228,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="1">
@@ -1244,7 +1247,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1258,13 +1261,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="1">
@@ -1291,13 +1294,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="1">
@@ -1310,7 +1313,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1324,13 +1327,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7"/>
       <c r="E7" s="1">
@@ -1340,10 +1343,10 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1357,13 +1360,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8"/>
       <c r="E8" s="1">
@@ -1374,7 +1377,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1388,13 +1391,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="1">
@@ -1405,7 +1408,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1419,13 +1422,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="1">
@@ -1436,7 +1439,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1450,13 +1453,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="1">
@@ -1464,7 +1467,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1478,13 +1481,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="1">
@@ -1492,7 +1495,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1506,13 +1509,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="1">
@@ -1520,7 +1523,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1534,23 +1537,23 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1564,13 +1567,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15"/>
       <c r="E15" s="1">
@@ -1578,7 +1581,7 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1592,23 +1595,23 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1622,13 +1625,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="1">
@@ -1636,7 +1639,7 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1650,13 +1653,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="1">
@@ -1664,7 +1667,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1678,13 +1681,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19"/>
       <c r="E19" s="1">
@@ -1692,7 +1695,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1706,23 +1709,23 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20"/>
       <c r="E20" s="1">
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1736,13 +1739,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="1">
@@ -1750,7 +1753,7 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1764,13 +1767,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="1">
@@ -1788,13 +1791,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="1">
@@ -1812,13 +1815,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1">
@@ -1836,13 +1839,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="1">
@@ -1860,13 +1863,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="1">
@@ -1884,13 +1887,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -1908,13 +1911,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -1932,13 +1935,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -1956,13 +1959,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -1980,13 +1983,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="1">
@@ -2005,13 +2008,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="1">
@@ -2031,13 +2034,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="1">
@@ -2057,13 +2060,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="1">
@@ -2083,13 +2086,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="1">
@@ -2109,13 +2112,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="1">
@@ -2135,13 +2138,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="1">
@@ -2161,13 +2164,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="1">
@@ -2178,13 +2181,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="1">
@@ -2195,13 +2198,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="1">
@@ -2212,13 +2215,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="1">
@@ -2227,13 +2230,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="1">
@@ -2242,13 +2245,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="1">
@@ -2257,13 +2260,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="1">
@@ -2272,13 +2275,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="1">
@@ -2287,13 +2290,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="1">
@@ -2302,13 +2305,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="1">
@@ -2317,13 +2320,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="1">
@@ -2332,13 +2335,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="1">
@@ -2347,13 +2350,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="1">
@@ -2362,13 +2365,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51"/>
       <c r="E51" s="1">
@@ -2377,13 +2380,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="1">
@@ -2392,13 +2395,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="1">
@@ -2407,13 +2410,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="1">
@@ -2422,13 +2425,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="1">
@@ -2437,13 +2440,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56"/>
       <c r="E56" s="1">
@@ -2452,13 +2455,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57"/>
       <c r="E57" s="1">
@@ -2467,13 +2470,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58"/>
       <c r="E58" s="1">
@@ -2482,13 +2485,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D59"/>
       <c r="E59" s="1">
@@ -2497,13 +2500,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60"/>
       <c r="E60" s="1">
@@ -2512,13 +2515,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61"/>
       <c r="E61" s="1">
@@ -2527,13 +2530,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62"/>
       <c r="E62" s="1">
@@ -2542,13 +2545,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63"/>
       <c r="E63" s="1">
@@ -2557,13 +2560,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="1">
@@ -2572,13 +2575,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1">
@@ -2587,13 +2590,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1">
@@ -2602,13 +2605,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="1">
@@ -2617,13 +2620,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="1">
@@ -2632,13 +2635,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="1">
@@ -2647,13 +2650,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="1">
@@ -2662,13 +2665,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D71"/>
       <c r="E71" s="1">
@@ -2677,13 +2680,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="1">
@@ -2692,13 +2695,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="1">
@@ -2707,13 +2710,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="1">
@@ -2722,13 +2725,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="1">
@@ -2737,13 +2740,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D76"/>
       <c r="E76" s="1">
@@ -2752,13 +2755,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="1">
@@ -2767,13 +2770,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1">
@@ -2782,13 +2785,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D79"/>
       <c r="E79" s="1">
@@ -2797,13 +2800,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="1">
@@ -2812,13 +2815,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="1">
@@ -2827,13 +2830,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="1">
@@ -2842,13 +2845,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="1">
@@ -2857,13 +2860,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="1">
@@ -2872,13 +2875,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="1">
@@ -2887,13 +2890,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="1">
@@ -2902,13 +2905,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="1">
@@ -2917,13 +2920,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="1">
@@ -2932,13 +2935,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="1">
@@ -2947,13 +2950,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="1">
@@ -2962,13 +2965,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="1">
@@ -2977,13 +2980,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="1">
@@ -2992,13 +2995,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="1">
@@ -3007,13 +3010,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="1">
@@ -3022,13 +3025,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="1">
@@ -3037,13 +3040,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="1">
@@ -3052,13 +3055,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="1">
@@ -3067,13 +3070,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="1">
@@ -3082,13 +3085,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="1">
@@ -3097,13 +3100,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="1">
@@ -3112,13 +3115,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="1">
@@ -3127,13 +3130,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="1">
@@ -3142,13 +3145,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="1">
@@ -3157,13 +3160,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="1">
@@ -3172,13 +3175,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="1">
@@ -3187,13 +3190,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D106"/>
       <c r="E106" s="1">
@@ -3202,13 +3205,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="1">
@@ -3217,13 +3220,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="1">
@@ -3232,13 +3235,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="1">
@@ -3247,13 +3250,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D110"/>
       <c r="E110" s="1">
@@ -3262,13 +3265,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D111"/>
       <c r="E111" s="1">
@@ -3277,13 +3280,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1">
@@ -3292,13 +3295,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="1">
@@ -3307,13 +3310,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D114"/>
       <c r="E114" s="1">
@@ -3322,13 +3325,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D115"/>
       <c r="E115" s="1">
@@ -3337,13 +3340,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D116"/>
       <c r="E116" s="1">
@@ -3352,13 +3355,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="1">
@@ -3367,13 +3370,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D118"/>
       <c r="E118" s="1">
@@ -3382,13 +3385,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="1">
@@ -3397,13 +3400,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1">
@@ -3412,13 +3415,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="1">
@@ -3427,13 +3430,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="1">
@@ -3442,13 +3445,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D123"/>
       <c r="E123" s="1">
@@ -3457,13 +3460,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D124"/>
       <c r="E124" s="1">
@@ -3472,13 +3475,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D125"/>
       <c r="E125" s="1">
@@ -3487,13 +3490,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D126"/>
       <c r="E126" s="1">
@@ -3502,13 +3505,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D127"/>
       <c r="E127" s="1">
@@ -3517,13 +3520,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D128"/>
       <c r="E128" s="1">
@@ -3532,13 +3535,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D129"/>
       <c r="E129" s="1">
@@ -3547,13 +3550,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D130"/>
       <c r="E130" s="1">
@@ -3562,13 +3565,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D131"/>
       <c r="E131" s="1">
@@ -3578,13 +3581,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D132"/>
       <c r="E132" s="1">
@@ -3593,13 +3596,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="1">
@@ -3609,13 +3612,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D134"/>
       <c r="E134" s="1">
@@ -3626,13 +3629,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D135"/>
       <c r="E135" s="1">
@@ -3643,13 +3646,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D136"/>
       <c r="E136" s="1">
@@ -3659,13 +3662,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D137"/>
       <c r="E137" s="1">
@@ -3675,13 +3678,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D138"/>
       <c r="E138" s="1">
@@ -3691,13 +3694,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D139"/>
       <c r="E139" s="1">
@@ -3707,13 +3710,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D140"/>
       <c r="E140" s="1">
@@ -3723,13 +3726,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D141"/>
       <c r="E141" s="1">
@@ -3739,13 +3742,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D142"/>
       <c r="E142" s="1">
@@ -3755,13 +3758,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
@@ -3771,13 +3774,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
@@ -3787,13 +3790,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
@@ -3803,13 +3806,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D146"/>
       <c r="E146" s="1">
@@ -3819,13 +3822,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D147"/>
       <c r="E147" s="1">
@@ -3835,13 +3838,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B148" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D148"/>
       <c r="E148" s="1">
@@ -3851,13 +3854,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D149"/>
       <c r="E149" s="1">
@@ -3867,13 +3870,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D150"/>
       <c r="E150" s="1">
@@ -3883,13 +3886,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="1">
@@ -3899,13 +3902,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D152"/>
       <c r="E152" s="1">
@@ -3915,13 +3918,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D153"/>
       <c r="E153" s="1">
@@ -3931,13 +3934,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D154"/>
       <c r="E154" s="1">
@@ -3947,13 +3950,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="1">
@@ -3963,13 +3966,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D156"/>
       <c r="E156" s="1">
@@ -3978,13 +3981,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D157"/>
       <c r="E157" s="1">
@@ -3993,13 +3996,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B158" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="1">
@@ -4008,13 +4011,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1">
@@ -4023,13 +4026,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D160"/>
       <c r="E160" s="1">
@@ -4038,13 +4041,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B161" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D161"/>
       <c r="E161" s="1">
@@ -4053,13 +4056,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D162"/>
       <c r="E162" s="1">
@@ -4068,13 +4071,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D163"/>
       <c r="E163" s="1">
@@ -4083,13 +4086,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D164"/>
       <c r="E164" s="1">
@@ -4098,13 +4101,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D165"/>
       <c r="E165" s="1">
@@ -4113,13 +4116,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D166"/>
       <c r="E166" s="1">
@@ -4128,13 +4131,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B167" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1">
@@ -4143,13 +4146,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1">
@@ -4158,13 +4161,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D169"/>
       <c r="E169" s="1">
@@ -4173,13 +4176,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D170"/>
       <c r="E170" s="1">
@@ -4188,13 +4191,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D171"/>
       <c r="E171" s="1">
@@ -4203,13 +4206,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D172"/>
       <c r="E172" s="1">
@@ -4218,13 +4221,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1">
@@ -4233,13 +4236,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="1">
@@ -4248,13 +4251,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="1">
@@ -4263,13 +4266,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D176"/>
       <c r="E176" s="1">
@@ -4278,13 +4281,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D177"/>
       <c r="E177" s="1">
@@ -4293,13 +4296,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D178"/>
       <c r="E178" s="1">
@@ -4308,13 +4311,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B179" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D179"/>
       <c r="E179" s="1">
@@ -4323,13 +4326,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D180"/>
       <c r="E180" s="1">
@@ -4338,13 +4341,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D181"/>
       <c r="E181" s="1">
@@ -4353,13 +4356,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D182"/>
       <c r="E182" s="1">
@@ -4368,13 +4371,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D183"/>
       <c r="E183" s="1">
@@ -4383,13 +4386,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D184"/>
       <c r="E184" s="1">
@@ -4398,13 +4401,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B185" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D185"/>
       <c r="E185" s="1">
@@ -4413,13 +4416,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D186"/>
       <c r="E186" s="1">
@@ -4428,13 +4431,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D187"/>
       <c r="E187" s="1">
@@ -4443,13 +4446,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D188"/>
       <c r="E188" s="1">
@@ -4459,13 +4462,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D189"/>
       <c r="E189" s="1">
@@ -4474,13 +4477,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D190"/>
       <c r="E190" s="1">
@@ -4489,13 +4492,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B191" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D191"/>
       <c r="E191" s="1">
@@ -4504,13 +4507,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D192"/>
       <c r="E192" s="1">
@@ -4519,13 +4522,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D193"/>
       <c r="E193" s="1">
@@ -4534,13 +4537,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B194" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D194"/>
       <c r="E194" s="1">
@@ -4549,13 +4552,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D195"/>
       <c r="E195" s="1">
@@ -4564,13 +4567,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D196"/>
       <c r="E196" s="1">
@@ -4579,13 +4582,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B197" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="1">
@@ -4594,13 +4597,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
@@ -4609,13 +4612,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D199"/>
       <c r="E199" s="1">
@@ -4624,13 +4627,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B200" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D200"/>
       <c r="E200" s="1">
@@ -4639,13 +4642,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D201"/>
       <c r="E201" s="1">
@@ -4654,13 +4657,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D202"/>
       <c r="E202" s="1">
@@ -4669,13 +4672,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B203" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D203"/>
       <c r="E203" s="1">
@@ -4684,13 +4687,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D204"/>
       <c r="E204" s="1">
@@ -4699,13 +4702,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D205"/>
       <c r="E205" s="1">
@@ -4714,13 +4717,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B206" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D206"/>
       <c r="E206" s="1">
@@ -4729,13 +4732,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C207" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D207"/>
       <c r="E207" s="1">
@@ -4744,13 +4747,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D208"/>
       <c r="E208" s="1">
@@ -4759,13 +4762,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B209" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D209"/>
       <c r="E209" s="1">
@@ -4774,13 +4777,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D210"/>
       <c r="E210" s="1">
@@ -4789,13 +4792,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D211"/>
       <c r="E211" s="1">
@@ -4804,13 +4807,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D212"/>
       <c r="E212" s="1">
@@ -4819,13 +4822,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D213"/>
       <c r="E213" s="1">
@@ -4834,13 +4837,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D214"/>
       <c r="E214" s="1">
@@ -4849,13 +4852,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
@@ -4864,13 +4867,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
@@ -4879,13 +4882,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D217"/>
       <c r="E217" s="1">
@@ -4894,13 +4897,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D218"/>
       <c r="E218" s="1">
@@ -4909,13 +4912,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D219"/>
       <c r="E219" s="1">
@@ -4924,13 +4927,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D220"/>
       <c r="E220" s="1">
@@ -4939,13 +4942,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D221"/>
       <c r="E221" s="1">
@@ -4954,13 +4957,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C222" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D222"/>
       <c r="E222" s="1">
@@ -4969,13 +4972,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D223"/>
       <c r="E223" s="1">
@@ -4984,13 +4987,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="1">
@@ -4999,13 +5002,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="1">
@@ -5014,13 +5017,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D226"/>
       <c r="E226" s="1">
@@ -5029,13 +5032,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D227"/>
       <c r="E227" s="1">
@@ -5044,13 +5047,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D228"/>
       <c r="E228" s="1">
@@ -5059,13 +5062,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D229"/>
       <c r="E229" s="1">
@@ -5074,13 +5077,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D230"/>
       <c r="E230" s="1">
@@ -5089,13 +5092,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D231"/>
       <c r="E231" s="1">
@@ -5104,13 +5107,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D232"/>
       <c r="E232" s="1">
@@ -5119,13 +5122,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D233"/>
       <c r="E233" s="1">
@@ -5134,13 +5137,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D234"/>
       <c r="E234" s="1">
@@ -5149,13 +5152,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D235"/>
       <c r="E235" s="1">
@@ -5164,13 +5167,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B236" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D236"/>
       <c r="E236" s="1">
@@ -5179,13 +5182,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D237"/>
       <c r="E237" s="1">
@@ -5194,13 +5197,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D238"/>
       <c r="E238" s="1">
@@ -5209,13 +5212,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B239" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D239"/>
       <c r="E239" s="1">
@@ -5224,13 +5227,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D240"/>
       <c r="E240" s="1">
@@ -5239,13 +5242,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D241"/>
       <c r="E241" s="1">
@@ -5254,13 +5257,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D242"/>
       <c r="E242" s="1">
@@ -5269,13 +5272,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D243"/>
       <c r="E243" s="1">
@@ -5284,13 +5287,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D244"/>
       <c r="E244" s="1">
@@ -5299,13 +5302,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B245" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D245"/>
       <c r="E245" s="1">
@@ -5314,13 +5317,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D246"/>
       <c r="E246" s="1">
@@ -5329,13 +5332,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B247" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D247"/>
       <c r="E247" s="1">
@@ -5344,13 +5347,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D248"/>
       <c r="E248" s="1">
@@ -5359,13 +5362,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B249" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D249"/>
       <c r="E249" s="1">
@@ -5374,13 +5377,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D250"/>
       <c r="E250" s="1">
@@ -5389,13 +5392,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D251"/>
       <c r="E251" s="1">
@@ -5404,13 +5407,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D252"/>
       <c r="E252" s="1">
@@ -5419,13 +5422,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D253"/>
       <c r="E253" s="1">
@@ -5434,13 +5437,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D254"/>
       <c r="E254" s="1">
@@ -5449,13 +5452,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D255"/>
       <c r="E255" s="1">
@@ -5464,13 +5467,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D256"/>
       <c r="E256" s="1">
@@ -5479,13 +5482,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D257"/>
       <c r="E257" s="1">
@@ -5494,13 +5497,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D258"/>
       <c r="E258" s="1">
@@ -5509,13 +5512,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D259"/>
       <c r="E259" s="1">
@@ -5524,13 +5527,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D260"/>
       <c r="E260" s="1">
@@ -5539,13 +5542,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D261"/>
       <c r="E261" s="1">
@@ -5554,13 +5557,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D262"/>
       <c r="E262" s="1">
@@ -5569,13 +5572,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D263"/>
       <c r="E263" s="1">
@@ -5584,13 +5587,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D264"/>
       <c r="E264" s="1">
@@ -5599,13 +5602,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D265"/>
       <c r="E265" s="1">
@@ -5614,13 +5617,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D266"/>
       <c r="E266" s="1">
@@ -5629,13 +5632,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D267"/>
       <c r="E267" s="1">
@@ -5644,13 +5647,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D268"/>
       <c r="E268" s="1">
@@ -5659,13 +5662,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B269" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D269"/>
       <c r="E269" s="1">
@@ -5674,13 +5677,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D270"/>
       <c r="E270" s="1">
@@ -5689,13 +5692,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D271"/>
       <c r="E271" s="1">
@@ -5704,13 +5707,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D272"/>
       <c r="E272" s="1">
@@ -5719,13 +5722,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D273"/>
       <c r="E273" s="1">
@@ -5734,13 +5737,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D274"/>
       <c r="E274" s="1">
@@ -5749,13 +5752,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B275" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D275"/>
       <c r="E275" s="1">
@@ -5764,13 +5767,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D276"/>
       <c r="E276" s="1">
@@ -5779,13 +5782,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
@@ -5794,13 +5797,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B278" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
@@ -5809,13 +5812,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
@@ -5824,13 +5827,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D280"/>
       <c r="E280" s="1">
@@ -5839,13 +5842,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D281"/>
       <c r="E281" s="1">
@@ -5854,13 +5857,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C282" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D282"/>
       <c r="E282" s="1">
@@ -5869,13 +5872,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D283"/>
       <c r="E283" s="1">
@@ -5884,13 +5887,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D284"/>
       <c r="E284" s="1">
@@ -5899,13 +5902,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D285"/>
       <c r="E285" s="1">
@@ -5914,13 +5917,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D286"/>
       <c r="E286" s="1">
@@ -5929,13 +5932,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B287" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D287"/>
       <c r="E287" s="1">
@@ -5944,13 +5947,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D288"/>
       <c r="E288" s="1">
@@ -5959,13 +5962,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D289"/>
       <c r="E289" s="1">
@@ -5974,13 +5977,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B290" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D290"/>
       <c r="E290" s="1">
@@ -5989,13 +5992,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D291"/>
       <c r="E291" s="1">
@@ -6004,13 +6007,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D292"/>
       <c r="E292" s="1">
@@ -6019,13 +6022,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B293" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D293"/>
       <c r="E293" s="1">
@@ -6034,13 +6037,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D294"/>
       <c r="E294" s="1">
@@ -6049,13 +6052,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D295"/>
       <c r="E295" s="1">
@@ -6064,13 +6067,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B296" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D296"/>
       <c r="E296" s="1">
@@ -6079,13 +6082,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D297"/>
       <c r="E297" s="1">
@@ -6094,13 +6097,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D298"/>
       <c r="E298" s="1">
@@ -6109,13 +6112,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B299" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D299"/>
       <c r="E299" s="1">
@@ -6124,13 +6127,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D300"/>
       <c r="E300" s="1">
@@ -6139,13 +6142,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D301"/>
       <c r="E301" s="1">
@@ -6154,13 +6157,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B302" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1">
@@ -6169,13 +6172,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D303"/>
       <c r="E303" s="1">
@@ -6184,13 +6187,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
@@ -6199,13 +6202,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B305" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D305"/>
       <c r="E305" s="1">
@@ -6214,13 +6217,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C306" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D306"/>
       <c r="E306" s="1">
@@ -6228,134 +6231,126 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>145</v>
-      </c>
-      <c r="B307" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C307" t="s">
-        <v>135</v>
-      </c>
-      <c r="D307"/>
-      <c r="E307" s="1">
-        <v>2</v>
+      <c r="A307" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E307" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>133</v>
-      </c>
-      <c r="B308" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C308" t="s">
-        <v>135</v>
-      </c>
-      <c r="D308"/>
-      <c r="E308" s="1">
-        <v>2</v>
+      <c r="A308" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E308" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>139</v>
-      </c>
-      <c r="B309" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C309" t="s">
-        <v>135</v>
-      </c>
-      <c r="D309"/>
-      <c r="E309" s="1">
-        <v>2</v>
+      <c r="A309" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E309" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>146</v>
-      </c>
-      <c r="B310" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C310" t="s">
-        <v>135</v>
-      </c>
-      <c r="D310"/>
-      <c r="E310" s="1">
-        <v>2</v>
+      <c r="A310" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E310" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>143</v>
-      </c>
-      <c r="B311" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C311" t="s">
-        <v>135</v>
-      </c>
-      <c r="D311"/>
-      <c r="E311" s="1">
-        <v>2</v>
+      <c r="A311" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E311" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>142</v>
-      </c>
-      <c r="B312" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C312" t="s">
-        <v>135</v>
-      </c>
-      <c r="D312"/>
-      <c r="E312" s="1">
-        <v>2</v>
+      <c r="A312" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E312" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>147</v>
+      <c r="A313" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B313" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C313" t="s">
-        <v>135</v>
-      </c>
-      <c r="D313"/>
-      <c r="E313" s="1">
-        <v>2</v>
+      <c r="C313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E313" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>136</v>
-      </c>
-      <c r="B314" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C314" t="s">
-        <v>135</v>
-      </c>
-      <c r="D314"/>
-      <c r="E314" s="1">
-        <v>2</v>
+      <c r="A314" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E314" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B315" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D315"/>
       <c r="E315" s="1">
@@ -6364,13 +6359,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B316" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D316"/>
       <c r="E316" s="1">
@@ -6379,13 +6374,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B317" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D317"/>
       <c r="E317" s="1">
@@ -6394,13 +6389,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B318" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D318"/>
       <c r="E318" s="1">
@@ -6409,13 +6404,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B319" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D319"/>
       <c r="E319" s="1">
@@ -6430,7 +6425,7 @@
         <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D320"/>
       <c r="E320" s="1">
@@ -6439,13 +6434,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B321" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D321"/>
       <c r="E321" s="1">
@@ -6454,237 +6449,238 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>196</v>
-      </c>
-      <c r="B322" s="11" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C322" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>185</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C323" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>186</v>
-      </c>
-      <c r="B324" s="11" t="s">
-        <v>15</v>
+        <v>135</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C324" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D324"/>
       <c r="E324" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>187</v>
-      </c>
-      <c r="B325" s="11" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C325" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D325"/>
       <c r="E325" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>190</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>15</v>
+        <v>139</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C326" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D326"/>
       <c r="E326" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>180</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>15</v>
+        <v>130</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D327"/>
       <c r="E327" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>15</v>
+      <c r="A328" t="s">
+        <v>138</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C328" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D328"/>
       <c r="E328" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>197</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="B329" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C329" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D329"/>
       <c r="E329" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="19" t="s">
-        <v>182</v>
+      <c r="A330" t="s">
+        <v>194</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="6" t="s">
-        <v>203</v>
+      <c r="A331" t="s">
+        <v>183</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E331" s="4">
-        <v>7</v>
+      <c r="C331" t="s">
+        <v>147</v>
+      </c>
+      <c r="D331"/>
+      <c r="E331" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D333"/>
       <c r="E333" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="19" t="s">
-        <v>178</v>
+      <c r="A334" t="s">
+        <v>188</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C334" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="19" t="s">
-        <v>179</v>
+      <c r="A335" t="s">
+        <v>178</v>
       </c>
       <c r="B335" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D335"/>
       <c r="E335" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B336" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D336"/>
       <c r="E336" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D337"/>
       <c r="E337" s="1">
@@ -6692,179 +6688,178 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
-        <v>200</v>
+      <c r="A338" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D338"/>
       <c r="E338" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="19" t="s">
-        <v>191</v>
+      <c r="A339" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C339" t="s">
-        <v>149</v>
-      </c>
-      <c r="D339"/>
-      <c r="E339" s="1">
-        <v>6</v>
+      <c r="C339" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E339" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
-        <v>199</v>
+      <c r="A340" t="s">
+        <v>179</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D340"/>
       <c r="E340" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="19" t="s">
-        <v>192</v>
+      <c r="A341" t="s">
+        <v>146</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C341" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D341"/>
       <c r="E341" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D342"/>
       <c r="E342" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D343"/>
       <c r="E343" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
-        <v>201</v>
+      <c r="A344" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D344"/>
       <c r="E344" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="19" t="s">
-        <v>176</v>
+      <c r="A345" t="s">
+        <v>191</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D345"/>
       <c r="E345" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>189</v>
+      <c r="A346" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D346"/>
       <c r="E346" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>183</v>
+      <c r="A347" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D347"/>
       <c r="E347" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>188</v>
+      <c r="A348" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B348" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D348"/>
       <c r="E348" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>194</v>
+      <c r="A349" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="B349" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D349"/>
       <c r="E349" s="1">
@@ -6872,164 +6867,163 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>184</v>
+      <c r="A350" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="B350" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D350"/>
       <c r="E350" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>169</v>
-      </c>
-      <c r="B351" s="12" t="s">
-        <v>12</v>
+      <c r="A351" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D351"/>
-      <c r="E351" s="18">
-        <v>2</v>
+      <c r="E351" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>156</v>
-      </c>
-      <c r="B352" s="12" t="s">
-        <v>12</v>
+      <c r="A352" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D352"/>
-      <c r="E352" s="18">
-        <v>2</v>
+      <c r="E352" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>160</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>12</v>
+      <c r="A353" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D353"/>
-      <c r="E353" s="18">
-        <v>2</v>
+      <c r="E353" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>154</v>
-      </c>
-      <c r="B354" s="12" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D354"/>
-      <c r="E354" s="18">
-        <v>2</v>
+      <c r="E354" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>155</v>
-      </c>
-      <c r="B355" s="12" t="s">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C355" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D355"/>
-      <c r="E355" s="18">
-        <v>2</v>
+      <c r="E355" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>162</v>
-      </c>
-      <c r="B356" s="12" t="s">
-        <v>12</v>
+        <v>186</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D356"/>
-      <c r="E356" s="18">
-        <v>2</v>
+      <c r="E356" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>152</v>
-      </c>
-      <c r="B357" s="12" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D357"/>
-      <c r="E357" s="18">
-        <v>2</v>
+      <c r="E357" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>158</v>
-      </c>
-      <c r="B358" s="12" t="s">
-        <v>12</v>
+        <v>182</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C358" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D358"/>
-      <c r="E358" s="18">
+      <c r="E358" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>157</v>
-      </c>
-      <c r="B359" s="12" t="s">
-        <v>12</v>
+      <c r="A359" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B359" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>170</v>
-      </c>
-      <c r="D359"/>
-      <c r="E359" s="18">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="E359" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B360" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D360"/>
       <c r="E360" s="18">
@@ -7038,13 +7032,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B361" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D361"/>
       <c r="E361" s="18">
@@ -7053,13 +7047,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D362"/>
       <c r="E362" s="18">
@@ -7068,13 +7062,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B363" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D363"/>
       <c r="E363" s="18">
@@ -7083,13 +7077,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B364" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D364"/>
       <c r="E364" s="18">
@@ -7098,13 +7092,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B365" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D365"/>
       <c r="E365" s="18">
@@ -7113,13 +7107,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B366" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D366"/>
       <c r="E366" s="18">
@@ -7128,13 +7122,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B367" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D367"/>
       <c r="E367" s="18">
@@ -7143,13 +7137,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B368" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D368"/>
       <c r="E368" s="18">
@@ -7157,17 +7151,138 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B369" s="11" t="s">
-        <v>15</v>
+      <c r="A369" t="s">
+        <v>159</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>149</v>
-      </c>
-      <c r="E369" s="4">
-        <v>6</v>
+        <v>168</v>
+      </c>
+      <c r="D369"/>
+      <c r="E369" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>164</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" t="s">
+        <v>168</v>
+      </c>
+      <c r="D370"/>
+      <c r="E370" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>165</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" t="s">
+        <v>168</v>
+      </c>
+      <c r="D371"/>
+      <c r="E371" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>151</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" t="s">
+        <v>168</v>
+      </c>
+      <c r="D372"/>
+      <c r="E372" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>163</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" t="s">
+        <v>168</v>
+      </c>
+      <c r="D373"/>
+      <c r="E373" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>161</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C374" t="s">
+        <v>168</v>
+      </c>
+      <c r="D374"/>
+      <c r="E374" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>166</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375" t="s">
+        <v>168</v>
+      </c>
+      <c r="D375"/>
+      <c r="E375" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>162</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" t="s">
+        <v>168</v>
+      </c>
+      <c r="D376"/>
+      <c r="E376" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>157</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" t="s">
+        <v>168</v>
+      </c>
+      <c r="D377"/>
+      <c r="E377" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -8295,8 +8410,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F604">
-    <sortState ref="A2:F604">
-      <sortCondition ref="A1:A604"/>
+    <sortState ref="A2:F593">
+      <sortCondition ref="C1:C604"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="214">
   <si>
     <t>ID Code</t>
   </si>
@@ -641,6 +641,24 @@
   </si>
   <si>
     <t>F_Pi_01</t>
+  </si>
+  <si>
+    <t>J. UI Design</t>
+  </si>
+  <si>
+    <t>Menu Design | In game Design |</t>
+  </si>
+  <si>
+    <t>J_IGD_01</t>
+  </si>
+  <si>
+    <t>J_MD_01</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>UI Design</t>
   </si>
 </sst>
 </file>
@@ -671,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +755,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -751,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +828,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1118,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J362" sqref="J362"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,6 +1493,9 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
+      <c r="G11" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
         <v>27</v>
@@ -1779,9 +1810,15 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="H22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -7285,6 +7322,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B378" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E378" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B379" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E379" s="4">
+        <v>6</v>
+      </c>
+    </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384"/>
       <c r="B384"/>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="230">
   <si>
     <t>ID Code</t>
   </si>
@@ -659,6 +659,54 @@
   </si>
   <si>
     <t>UI Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BloodTexture | DirtTexture | CracksTexture | </t>
+  </si>
+  <si>
+    <t>F_BT_01</t>
+  </si>
+  <si>
+    <t>F_BT_02</t>
+  </si>
+  <si>
+    <t>F_BT_03</t>
+  </si>
+  <si>
+    <t>F_BT_04</t>
+  </si>
+  <si>
+    <t>F_BT_05</t>
+  </si>
+  <si>
+    <t>F_DT_01</t>
+  </si>
+  <si>
+    <t>F_DT_02</t>
+  </si>
+  <si>
+    <t>F_DT_03</t>
+  </si>
+  <si>
+    <t>F_DT_04</t>
+  </si>
+  <si>
+    <t>F_DT_05</t>
+  </si>
+  <si>
+    <t>F_CT_01</t>
+  </si>
+  <si>
+    <t>F_CT_02</t>
+  </si>
+  <si>
+    <t>F_CT_03</t>
+  </si>
+  <si>
+    <t>F_CT_04</t>
+  </si>
+  <si>
+    <t>F_CT_05</t>
   </si>
 </sst>
 </file>
@@ -775,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,6 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1146,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G373" sqref="G373"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,11 +1629,9 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1610,9 +1657,11 @@
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1638,11 +1687,9 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1668,9 +1715,11 @@
       <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1698,7 +1747,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1726,7 +1775,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1752,11 +1801,9 @@
       <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1782,9 +1829,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="I21" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1810,11 +1859,9 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1840,9 +1887,15 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="H23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -1959,7 +2012,8 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -1983,7 +2037,8 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -2007,7 +2062,8 @@
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -2032,7 +2088,8 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -2057,8 +2114,8 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -2083,8 +2140,8 @@
       <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -2109,8 +2166,8 @@
       <c r="E34" s="1">
         <v>8</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -2135,8 +2192,8 @@
       <c r="E35" s="1">
         <v>8</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -2161,8 +2218,8 @@
       <c r="E36" s="1">
         <v>8</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -3466,240 +3523,220 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122" s="1">
-        <v>5</v>
+      <c r="A122" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123"/>
-      <c r="E123" s="1">
-        <v>5</v>
+      <c r="A123" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>65</v>
+      <c r="A124" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" t="s">
-        <v>41</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124" s="1">
-        <v>5</v>
+      <c r="C124" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>84</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" t="s">
-        <v>41</v>
-      </c>
-      <c r="D125"/>
-      <c r="E125" s="1">
-        <v>4</v>
+      <c r="A125" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>84</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="A126" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D126"/>
-      <c r="E126" s="1">
-        <v>4</v>
-      </c>
+      <c r="E126"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>84</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>41</v>
       </c>
       <c r="D127"/>
       <c r="E127" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>116</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C128" t="s">
         <v>41</v>
       </c>
       <c r="D128"/>
       <c r="E128" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>116</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>41</v>
       </c>
       <c r="D129"/>
       <c r="E129" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>41</v>
       </c>
       <c r="D130"/>
       <c r="E130" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>15</v>
+      <c r="A131" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C131" t="s">
         <v>41</v>
       </c>
       <c r="D131"/>
       <c r="E131" s="1">
-        <v>7</v>
-      </c>
-      <c r="F131"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>13</v>
+      <c r="A132" t="s">
+        <v>84</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
       </c>
       <c r="D132"/>
       <c r="E132" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>10</v>
+      <c r="A133" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>41</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G133" s="14"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>14</v>
+      <c r="A134" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C134" t="s">
         <v>41</v>
       </c>
       <c r="D134"/>
       <c r="E134" s="1">
-        <v>7</v>
-      </c>
-      <c r="F134"/>
+        <v>3</v>
+      </c>
       <c r="G134" s="14"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>72</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>12</v>
+        <v>116</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>41</v>
       </c>
       <c r="D135"/>
       <c r="E135" s="1">
-        <v>5</v>
-      </c>
-      <c r="F135"/>
+        <v>3</v>
+      </c>
       <c r="G135" s="14"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B136" s="13" t="s">
-        <v>16</v>
+      <c r="B136" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C136" t="s">
         <v>41</v>
       </c>
       <c r="D136"/>
       <c r="E136" s="1">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F136"/>
       <c r="G136" s="14"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>108</v>
+      <c r="A137" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>13</v>
@@ -3709,13 +3746,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G137" s="14"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>108</v>
+      <c r="A138" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>10</v>
@@ -3725,13 +3762,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G138" s="14"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>108</v>
+      <c r="A139" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
@@ -3741,48 +3778,50 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="1">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F139"/>
       <c r="G139" s="14"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>111</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>41</v>
       </c>
       <c r="D140"/>
       <c r="E140" s="1">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F140"/>
       <c r="G140" s="14"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>111</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C141" t="s">
         <v>41</v>
       </c>
       <c r="D141"/>
       <c r="E141" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G141" s="14"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>111</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C142" t="s">
         <v>41</v>
@@ -3794,219 +3833,219 @@
       <c r="G142" s="14"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>13</v>
+      <c r="A143" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C143" t="s">
         <v>41</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G143" s="14"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>10</v>
+      <c r="A144" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C144" t="s">
         <v>41</v>
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G144" s="14"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>14</v>
+      <c r="A145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>41</v>
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G145" s="14"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>101</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>41</v>
       </c>
       <c r="D146"/>
       <c r="E146" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G146" s="14"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147"/>
       <c r="E147" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G147" s="14"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>101</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>10</v>
+      <c r="A148" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="D148"/>
       <c r="E148" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G148" s="14"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>101</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>14</v>
+      <c r="A149" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149"/>
       <c r="E149" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G149" s="14"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>101</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>12</v>
+      <c r="A150" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C150" t="s">
         <v>41</v>
       </c>
       <c r="D150"/>
       <c r="E150" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G150" s="14"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>69</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G151" s="14"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>69</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>41</v>
       </c>
       <c r="D152"/>
       <c r="E152" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G152" s="14"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>69</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>14</v>
+        <v>101</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>41</v>
       </c>
       <c r="D153"/>
       <c r="E153" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G153" s="14"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>68</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C154" t="s">
         <v>41</v>
       </c>
       <c r="D154"/>
       <c r="E154" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G154" s="14"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>68</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>41</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G155" s="14"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>68</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>41</v>
@@ -4018,367 +4057,347 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>90</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
       </c>
       <c r="D157"/>
       <c r="E157" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>90</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>41</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>90</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>41</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C160" t="s">
         <v>41</v>
       </c>
       <c r="D160"/>
       <c r="E160" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>110</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C161" t="s">
         <v>41</v>
       </c>
       <c r="D161"/>
       <c r="E161" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>110</v>
+      <c r="A162" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D162"/>
-      <c r="E162" s="1">
-        <v>2</v>
-      </c>
+      <c r="E162"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="A163" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D163"/>
-      <c r="E163" s="1">
-        <v>3</v>
-      </c>
+      <c r="E163"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="A164" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D164"/>
-      <c r="E164" s="1">
-        <v>3</v>
-      </c>
+      <c r="E164"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="19" t="s">
-        <v>128</v>
+      <c r="A165" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D165"/>
-      <c r="E165" s="1">
-        <v>3</v>
-      </c>
+      <c r="E165"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>76</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="A166" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D166"/>
-      <c r="E166" s="1">
-        <v>5</v>
-      </c>
+      <c r="E166"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>76</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C167" t="s">
         <v>41</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>76</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>41</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>13</v>
+      <c r="A169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C169" t="s">
         <v>41</v>
       </c>
       <c r="D169"/>
       <c r="E169" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>10</v>
+      <c r="A170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C170" t="s">
         <v>41</v>
       </c>
       <c r="D170"/>
       <c r="E170" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>14</v>
+      <c r="A171" t="s">
+        <v>110</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C171" t="s">
         <v>41</v>
       </c>
       <c r="D171"/>
       <c r="E171" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>13</v>
+      <c r="A172" t="s">
+        <v>110</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C172" t="s">
         <v>41</v>
       </c>
       <c r="D172"/>
       <c r="E172" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C173" t="s">
         <v>41</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>14</v>
+        <v>128</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C174" t="s">
         <v>41</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C175" t="s">
         <v>41</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="A176" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D176"/>
-      <c r="E176" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="19" t="s">
-        <v>122</v>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D177"/>
-      <c r="E177" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D178"/>
-      <c r="E178" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D179"/>
-      <c r="E179" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="19" t="s">
-        <v>104</v>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D180"/>
-      <c r="E180" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="19" t="s">
-        <v>114</v>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>76</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>13</v>
@@ -4388,12 +4407,12 @@
       </c>
       <c r="D181"/>
       <c r="E181" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="19" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>76</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>10</v>
@@ -4403,12 +4422,12 @@
       </c>
       <c r="D182"/>
       <c r="E182" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="19" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>76</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>14</v>
@@ -4418,12 +4437,12 @@
       </c>
       <c r="D183"/>
       <c r="E183" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>13</v>
@@ -4436,9 +4455,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B185" s="15" t="s">
         <v>10</v>
@@ -4451,9 +4470,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>14</v>
@@ -4466,9 +4485,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>124</v>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>13</v>
@@ -4478,12 +4497,12 @@
       </c>
       <c r="D187"/>
       <c r="E187" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>124</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>10</v>
@@ -4493,13 +4512,12 @@
       </c>
       <c r="D188"/>
       <c r="E188" s="1">
-        <v>3</v>
-      </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>124</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
@@ -4509,12 +4527,12 @@
       </c>
       <c r="D189"/>
       <c r="E189" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>13</v>
@@ -4524,12 +4542,12 @@
       </c>
       <c r="D190"/>
       <c r="E190" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B191" s="15" t="s">
         <v>10</v>
@@ -4539,12 +4557,12 @@
       </c>
       <c r="D191"/>
       <c r="E191" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>14</v>
@@ -4554,12 +4572,12 @@
       </c>
       <c r="D192"/>
       <c r="E192" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>13</v>
@@ -4569,12 +4587,12 @@
       </c>
       <c r="D193"/>
       <c r="E193" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B194" s="15" t="s">
         <v>10</v>
@@ -4584,12 +4602,12 @@
       </c>
       <c r="D194"/>
       <c r="E194" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>14</v>
@@ -4599,12 +4617,12 @@
       </c>
       <c r="D195"/>
       <c r="E195" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>13</v>
@@ -4614,12 +4632,12 @@
       </c>
       <c r="D196"/>
       <c r="E196" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B197" s="15" t="s">
         <v>10</v>
@@ -4629,12 +4647,12 @@
       </c>
       <c r="D197"/>
       <c r="E197" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>14</v>
@@ -4644,12 +4662,12 @@
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>13</v>
@@ -4659,12 +4677,12 @@
       </c>
       <c r="D199"/>
       <c r="E199" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="B200" s="15" t="s">
         <v>10</v>
@@ -4674,12 +4692,12 @@
       </c>
       <c r="D200"/>
       <c r="E200" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>14</v>
@@ -4689,12 +4707,12 @@
       </c>
       <c r="D201"/>
       <c r="E201" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="19" t="s">
-        <v>200</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>124</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>13</v>
@@ -4704,12 +4722,12 @@
       </c>
       <c r="D202"/>
       <c r="E202" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="19" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>124</v>
       </c>
       <c r="B203" s="15" t="s">
         <v>10</v>
@@ -4719,12 +4737,13 @@
       </c>
       <c r="D203"/>
       <c r="E203" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="19" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>124</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>14</v>
@@ -4734,12 +4753,12 @@
       </c>
       <c r="D204"/>
       <c r="E204" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>13</v>
@@ -4749,12 +4768,12 @@
       </c>
       <c r="D205"/>
       <c r="E205" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B206" s="15" t="s">
         <v>10</v>
@@ -4764,12 +4783,12 @@
       </c>
       <c r="D206"/>
       <c r="E206" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>14</v>
@@ -4779,12 +4798,12 @@
       </c>
       <c r="D207"/>
       <c r="E207" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>13</v>
@@ -4794,12 +4813,12 @@
       </c>
       <c r="D208"/>
       <c r="E208" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B209" s="15" t="s">
         <v>10</v>
@@ -4809,12 +4828,12 @@
       </c>
       <c r="D209"/>
       <c r="E209" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>14</v>
@@ -4824,12 +4843,12 @@
       </c>
       <c r="D210"/>
       <c r="E210" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>13</v>
@@ -4844,7 +4863,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>10</v>
@@ -4859,7 +4878,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>14</v>
@@ -4874,7 +4893,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>13</v>
@@ -4884,12 +4903,12 @@
       </c>
       <c r="D214"/>
       <c r="E214" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>10</v>
@@ -4899,12 +4918,12 @@
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>14</v>
@@ -4914,12 +4933,12 @@
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>112</v>
+      <c r="A217" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
@@ -4929,12 +4948,12 @@
       </c>
       <c r="D217"/>
       <c r="E217" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>112</v>
+      <c r="A218" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>10</v>
@@ -4944,12 +4963,12 @@
       </c>
       <c r="D218"/>
       <c r="E218" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>112</v>
+      <c r="A219" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>14</v>
@@ -4959,12 +4978,12 @@
       </c>
       <c r="D219"/>
       <c r="E219" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>78</v>
+      <c r="A220" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>13</v>
@@ -4974,12 +4993,12 @@
       </c>
       <c r="D220"/>
       <c r="E220" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>78</v>
+      <c r="A221" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>10</v>
@@ -4989,12 +5008,12 @@
       </c>
       <c r="D221"/>
       <c r="E221" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>78</v>
+      <c r="A222" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>14</v>
@@ -5004,12 +5023,12 @@
       </c>
       <c r="D222"/>
       <c r="E222" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>13</v>
@@ -5019,12 +5038,12 @@
       </c>
       <c r="D223"/>
       <c r="E223" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>10</v>
@@ -5034,12 +5053,12 @@
       </c>
       <c r="D224"/>
       <c r="E224" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>14</v>
@@ -5049,12 +5068,12 @@
       </c>
       <c r="D225"/>
       <c r="E225" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>73</v>
+      <c r="A226" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
@@ -5064,12 +5083,12 @@
       </c>
       <c r="D226"/>
       <c r="E226" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>73</v>
+      <c r="A227" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>10</v>
@@ -5079,12 +5098,12 @@
       </c>
       <c r="D227"/>
       <c r="E227" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>73</v>
+      <c r="A228" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>14</v>
@@ -5094,12 +5113,12 @@
       </c>
       <c r="D228"/>
       <c r="E228" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="19" t="s">
-        <v>74</v>
+      <c r="A229" t="s">
+        <v>95</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>13</v>
@@ -5109,12 +5128,12 @@
       </c>
       <c r="D229"/>
       <c r="E229" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="19" t="s">
-        <v>74</v>
+      <c r="A230" t="s">
+        <v>95</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>10</v>
@@ -5124,12 +5143,12 @@
       </c>
       <c r="D230"/>
       <c r="E230" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="19" t="s">
-        <v>74</v>
+      <c r="A231" t="s">
+        <v>95</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>14</v>
@@ -5139,12 +5158,12 @@
       </c>
       <c r="D231"/>
       <c r="E231" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
@@ -5154,12 +5173,12 @@
       </c>
       <c r="D232"/>
       <c r="E232" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>10</v>
@@ -5169,12 +5188,12 @@
       </c>
       <c r="D233"/>
       <c r="E233" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>14</v>
@@ -5184,12 +5203,12 @@
       </c>
       <c r="D234"/>
       <c r="E234" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
@@ -5199,12 +5218,12 @@
       </c>
       <c r="D235"/>
       <c r="E235" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B236" s="15" t="s">
         <v>10</v>
@@ -5214,12 +5233,12 @@
       </c>
       <c r="D236"/>
       <c r="E236" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>14</v>
@@ -5229,12 +5248,12 @@
       </c>
       <c r="D237"/>
       <c r="E237" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>13</v>
@@ -5244,12 +5263,12 @@
       </c>
       <c r="D238"/>
       <c r="E238" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B239" s="15" t="s">
         <v>10</v>
@@ -5259,12 +5278,12 @@
       </c>
       <c r="D239"/>
       <c r="E239" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>14</v>
@@ -5274,12 +5293,12 @@
       </c>
       <c r="D240"/>
       <c r="E240" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>13</v>
@@ -5289,12 +5308,12 @@
       </c>
       <c r="D241"/>
       <c r="E241" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>10</v>
@@ -5304,12 +5323,12 @@
       </c>
       <c r="D242"/>
       <c r="E242" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>14</v>
@@ -5319,12 +5338,12 @@
       </c>
       <c r="D243"/>
       <c r="E243" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>71</v>
+      <c r="A244" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>13</v>
@@ -5334,12 +5353,12 @@
       </c>
       <c r="D244"/>
       <c r="E244" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>71</v>
+      <c r="A245" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B245" s="15" t="s">
         <v>10</v>
@@ -5349,12 +5368,12 @@
       </c>
       <c r="D245"/>
       <c r="E245" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>71</v>
+      <c r="A246" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>14</v>
@@ -5364,102 +5383,102 @@
       </c>
       <c r="D246"/>
       <c r="E246" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>15</v>
+      <c r="A247" t="s">
+        <v>77</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C247" t="s">
         <v>41</v>
       </c>
       <c r="D247"/>
       <c r="E247" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>13</v>
+      <c r="A248" t="s">
+        <v>77</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C248" t="s">
         <v>41</v>
       </c>
       <c r="D248"/>
       <c r="E248" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B249" s="15" t="s">
-        <v>10</v>
+      <c r="A249" t="s">
+        <v>77</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C249" t="s">
         <v>41</v>
       </c>
       <c r="D249"/>
       <c r="E249" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>14</v>
+      <c r="A250" t="s">
+        <v>97</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C250" t="s">
         <v>41</v>
       </c>
       <c r="D250"/>
       <c r="E250" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>79</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C251" t="s">
         <v>41</v>
       </c>
       <c r="D251"/>
       <c r="E251" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>79</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>16</v>
+        <v>97</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C252" t="s">
         <v>41</v>
       </c>
       <c r="D252"/>
       <c r="E252" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
@@ -5469,12 +5488,12 @@
       </c>
       <c r="D253"/>
       <c r="E253" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B254" s="15" t="s">
         <v>10</v>
@@ -5484,12 +5503,12 @@
       </c>
       <c r="D254"/>
       <c r="E254" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>14</v>
@@ -5499,12 +5518,12 @@
       </c>
       <c r="D255"/>
       <c r="E255" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
@@ -5519,7 +5538,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>10</v>
@@ -5534,7 +5553,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>14</v>
@@ -5549,7 +5568,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
@@ -5564,7 +5583,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B260" s="15" t="s">
         <v>10</v>
@@ -5579,7 +5598,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>14</v>
@@ -5593,98 +5612,98 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>103</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>13</v>
+      <c r="A262" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C262" t="s">
         <v>41</v>
       </c>
       <c r="D262"/>
       <c r="E262" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>103</v>
-      </c>
-      <c r="B263" s="15" t="s">
-        <v>10</v>
+      <c r="A263" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C263" t="s">
         <v>41</v>
       </c>
       <c r="D263"/>
       <c r="E263" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>103</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>14</v>
+      <c r="A264" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C264" t="s">
         <v>41</v>
       </c>
       <c r="D264"/>
       <c r="E264" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>102</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>13</v>
+      <c r="A265" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C265" t="s">
         <v>41</v>
       </c>
       <c r="D265"/>
       <c r="E265" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>102</v>
-      </c>
-      <c r="B266" s="15" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C266" t="s">
         <v>41</v>
       </c>
       <c r="D266"/>
       <c r="E266" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>102</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C267" t="s">
         <v>41</v>
       </c>
       <c r="D267"/>
       <c r="E267" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
@@ -5694,12 +5713,12 @@
       </c>
       <c r="D268"/>
       <c r="E268" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B269" s="15" t="s">
         <v>10</v>
@@ -5709,12 +5728,12 @@
       </c>
       <c r="D269"/>
       <c r="E269" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>14</v>
@@ -5724,12 +5743,12 @@
       </c>
       <c r="D270"/>
       <c r="E270" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
@@ -5739,12 +5758,12 @@
       </c>
       <c r="D271"/>
       <c r="E271" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>10</v>
@@ -5754,12 +5773,12 @@
       </c>
       <c r="D272"/>
       <c r="E272" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>14</v>
@@ -5769,12 +5788,12 @@
       </c>
       <c r="D273"/>
       <c r="E273" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
@@ -5784,12 +5803,12 @@
       </c>
       <c r="D274"/>
       <c r="E274" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B275" s="15" t="s">
         <v>10</v>
@@ -5799,12 +5818,12 @@
       </c>
       <c r="D275"/>
       <c r="E275" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>14</v>
@@ -5814,12 +5833,12 @@
       </c>
       <c r="D276"/>
       <c r="E276" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="19" t="s">
-        <v>99</v>
+      <c r="A277" t="s">
+        <v>103</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>13</v>
@@ -5829,12 +5848,12 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="19" t="s">
-        <v>99</v>
+      <c r="A278" t="s">
+        <v>103</v>
       </c>
       <c r="B278" s="15" t="s">
         <v>10</v>
@@ -5844,12 +5863,12 @@
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="19" t="s">
-        <v>99</v>
+      <c r="A279" t="s">
+        <v>103</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>14</v>
@@ -5859,12 +5878,12 @@
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="19" t="s">
-        <v>123</v>
+      <c r="A280" t="s">
+        <v>102</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>13</v>
@@ -5874,12 +5893,12 @@
       </c>
       <c r="D280"/>
       <c r="E280" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="19" t="s">
-        <v>123</v>
+      <c r="A281" t="s">
+        <v>102</v>
       </c>
       <c r="B281" s="15" t="s">
         <v>10</v>
@@ -5889,12 +5908,12 @@
       </c>
       <c r="D281"/>
       <c r="E281" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="19" t="s">
-        <v>123</v>
+      <c r="A282" t="s">
+        <v>102</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>14</v>
@@ -5904,225 +5923,217 @@
       </c>
       <c r="D282"/>
       <c r="E282" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>88</v>
+      <c r="A283" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C283" t="s">
-        <v>41</v>
-      </c>
-      <c r="D283"/>
-      <c r="E283" s="1">
-        <v>4</v>
+      <c r="C283" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E283" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>88</v>
+      <c r="A284" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B284" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C284" t="s">
-        <v>41</v>
-      </c>
-      <c r="D284"/>
-      <c r="E284" s="1">
-        <v>4</v>
+      <c r="C284" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E284" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>88</v>
+      <c r="A285" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C285" t="s">
-        <v>41</v>
-      </c>
-      <c r="D285"/>
-      <c r="E285" s="1">
-        <v>4</v>
+      <c r="C285" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E285" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C286" t="s">
-        <v>41</v>
-      </c>
-      <c r="D286"/>
-      <c r="E286" s="1">
-        <v>3</v>
+      <c r="A286" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E286" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B287" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C287" t="s">
-        <v>41</v>
-      </c>
-      <c r="D287"/>
-      <c r="E287" s="1">
-        <v>3</v>
+      <c r="A287" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E287" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" t="s">
-        <v>41</v>
-      </c>
-      <c r="D288"/>
-      <c r="E288" s="1">
-        <v>3</v>
+      <c r="A288" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E288" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C289" t="s">
-        <v>41</v>
-      </c>
-      <c r="D289"/>
-      <c r="E289" s="1">
-        <v>5</v>
+      <c r="A289" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E289" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B290" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C290" t="s">
-        <v>41</v>
-      </c>
-      <c r="D290"/>
-      <c r="E290" s="1">
-        <v>5</v>
+      <c r="A290" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E290" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>14</v>
+      <c r="A291" t="s">
+        <v>67</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C291" t="s">
         <v>41</v>
       </c>
       <c r="D291"/>
       <c r="E291" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>13</v>
+      <c r="A292" t="s">
+        <v>67</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C292" t="s">
         <v>41</v>
       </c>
       <c r="D292"/>
       <c r="E292" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B293" s="15" t="s">
-        <v>10</v>
+      <c r="A293" t="s">
+        <v>67</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C293" t="s">
         <v>41</v>
       </c>
       <c r="D293"/>
       <c r="E293" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>14</v>
+      <c r="A294" t="s">
+        <v>109</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C294" t="s">
         <v>41</v>
       </c>
       <c r="D294"/>
       <c r="E294" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>85</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C295" t="s">
         <v>41</v>
       </c>
       <c r="D295"/>
       <c r="E295" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>85</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>10</v>
+        <v>109</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C296" t="s">
         <v>41</v>
       </c>
       <c r="D296"/>
       <c r="E296" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>85</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C297" t="s">
         <v>41</v>
@@ -6134,130 +6145,130 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>98</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C298" t="s">
         <v>41</v>
       </c>
       <c r="D298"/>
       <c r="E298" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>98</v>
-      </c>
-      <c r="B299" s="15" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C299" t="s">
         <v>41</v>
       </c>
       <c r="D299"/>
       <c r="E299" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>98</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>14</v>
+      <c r="A300" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C300" t="s">
         <v>41</v>
       </c>
       <c r="D300"/>
       <c r="E300" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>83</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>13</v>
+      <c r="A301" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C301" t="s">
         <v>41</v>
       </c>
       <c r="D301"/>
       <c r="E301" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>83</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>10</v>
+      <c r="A302" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C302" t="s">
         <v>41</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>83</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>14</v>
+      <c r="A303" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C303" t="s">
         <v>41</v>
       </c>
       <c r="D303"/>
       <c r="E303" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>118</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>13</v>
+      <c r="A304" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C304" t="s">
         <v>41</v>
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>118</v>
-      </c>
-      <c r="B305" s="15" t="s">
-        <v>10</v>
+      <c r="A305" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C305" t="s">
         <v>41</v>
       </c>
       <c r="D305"/>
       <c r="E305" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>118</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C306" t="s">
         <v>41</v>
@@ -6268,515 +6279,524 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E307" s="4">
-        <v>7</v>
+      <c r="A307" t="s">
+        <v>88</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>41</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E308" s="4">
-        <v>7</v>
+      <c r="A308" t="s">
+        <v>88</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" t="s">
+        <v>41</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E309" s="4">
-        <v>7</v>
+      <c r="A309" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" t="s">
+        <v>41</v>
+      </c>
+      <c r="D309"/>
+      <c r="E309" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E310" s="4">
-        <v>7</v>
+      <c r="A310" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B310" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" t="s">
+        <v>41</v>
+      </c>
+      <c r="D310"/>
+      <c r="E310" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E311" s="4">
-        <v>7</v>
+      <c r="A311" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311"/>
+      <c r="E311" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B312" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E312" s="4">
-        <v>7</v>
+      <c r="A312" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312" t="s">
+        <v>41</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B313" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E313" s="4">
-        <v>7</v>
+      <c r="A313" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" t="s">
+        <v>41</v>
+      </c>
+      <c r="D313"/>
+      <c r="E313" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E314" s="4">
-        <v>7</v>
+      <c r="A314" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C314" t="s">
+        <v>41</v>
+      </c>
+      <c r="D314"/>
+      <c r="E314" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>143</v>
-      </c>
-      <c r="B315" s="13" t="s">
-        <v>16</v>
+      <c r="A315" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D315"/>
       <c r="E315" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>131</v>
-      </c>
-      <c r="B316" s="13" t="s">
-        <v>16</v>
+      <c r="A316" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D316"/>
       <c r="E316" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>137</v>
-      </c>
-      <c r="B317" s="13" t="s">
-        <v>16</v>
+      <c r="A317" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C317" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D317"/>
       <c r="E317" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>144</v>
-      </c>
-      <c r="B318" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C318" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D318"/>
       <c r="E318" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>141</v>
-      </c>
-      <c r="B319" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D319"/>
       <c r="E319" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>140</v>
-      </c>
-      <c r="B320" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C320" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D320"/>
       <c r="E320" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>145</v>
-      </c>
-      <c r="B321" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C321" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D321"/>
       <c r="E321" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>134</v>
-      </c>
-      <c r="B322" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B322" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>132</v>
-      </c>
-      <c r="B323" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>135</v>
-      </c>
-      <c r="B324" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D324"/>
       <c r="E324" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>136</v>
-      </c>
-      <c r="B325" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D325"/>
       <c r="E325" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>139</v>
-      </c>
-      <c r="B326" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D326"/>
       <c r="E326" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>130</v>
-      </c>
-      <c r="B327" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C327" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D327"/>
       <c r="E327" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>138</v>
-      </c>
-      <c r="B328" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C328" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D328"/>
       <c r="E328" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>142</v>
-      </c>
-      <c r="B329" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D329"/>
       <c r="E329" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>194</v>
-      </c>
-      <c r="B330" s="11" t="s">
-        <v>15</v>
+        <v>143</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>183</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C331" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D331"/>
       <c r="E331" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>184</v>
-      </c>
-      <c r="B332" s="11" t="s">
-        <v>15</v>
+        <v>137</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C332" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>185</v>
-      </c>
-      <c r="B333" s="11" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C333" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D333"/>
       <c r="E333" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>188</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>178</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C335" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D335"/>
       <c r="E335" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B336" s="11" t="s">
-        <v>15</v>
+      <c r="A336" t="s">
+        <v>145</v>
+      </c>
+      <c r="B336" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C336" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D336"/>
       <c r="E336" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>195</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="B337" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D337"/>
       <c r="E337" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B338" s="11" t="s">
-        <v>15</v>
+      <c r="A338" t="s">
+        <v>132</v>
+      </c>
+      <c r="B338" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C338" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D338"/>
       <c r="E338" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B339" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E339" s="4">
-        <v>7</v>
+      <c r="A339" t="s">
+        <v>135</v>
+      </c>
+      <c r="B339" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C339" t="s">
+        <v>133</v>
+      </c>
+      <c r="D339"/>
+      <c r="E339" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>179</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="B340" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D340"/>
       <c r="E340" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>146</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>15</v>
+        <v>139</v>
+      </c>
+      <c r="B341" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D341"/>
       <c r="E341" s="1">
@@ -6784,53 +6804,53 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>15</v>
+      <c r="A342" t="s">
+        <v>130</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D342"/>
       <c r="E342" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B343" s="11" t="s">
-        <v>15</v>
+      <c r="A343" t="s">
+        <v>138</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D343"/>
       <c r="E343" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B344" s="11" t="s">
-        <v>15</v>
+      <c r="A344" t="s">
+        <v>142</v>
+      </c>
+      <c r="B344" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D344"/>
       <c r="E344" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>15</v>
@@ -6840,12 +6860,12 @@
       </c>
       <c r="D345"/>
       <c r="E345" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="2" t="s">
-        <v>198</v>
+      <c r="A346" t="s">
+        <v>183</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>15</v>
@@ -6859,8 +6879,8 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="19" t="s">
-        <v>189</v>
+      <c r="A347" t="s">
+        <v>184</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>15</v>
@@ -6870,12 +6890,12 @@
       </c>
       <c r="D347"/>
       <c r="E347" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>197</v>
+      <c r="A348" t="s">
+        <v>185</v>
       </c>
       <c r="B348" s="11" t="s">
         <v>15</v>
@@ -6889,8 +6909,8 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="19" t="s">
-        <v>190</v>
+      <c r="A349" t="s">
+        <v>188</v>
       </c>
       <c r="B349" s="11" t="s">
         <v>15</v>
@@ -6904,8 +6924,8 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="19" t="s">
-        <v>173</v>
+      <c r="A350" t="s">
+        <v>178</v>
       </c>
       <c r="B350" s="11" t="s">
         <v>15</v>
@@ -6915,12 +6935,12 @@
       </c>
       <c r="D350"/>
       <c r="E350" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="19" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B351" s="11" t="s">
         <v>15</v>
@@ -6930,12 +6950,12 @@
       </c>
       <c r="D351"/>
       <c r="E351" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>199</v>
+      <c r="A352" t="s">
+        <v>195</v>
       </c>
       <c r="B352" s="11" t="s">
         <v>15</v>
@@ -6945,12 +6965,12 @@
       </c>
       <c r="D352"/>
       <c r="E352" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B353" s="11" t="s">
         <v>15</v>
@@ -6960,27 +6980,26 @@
       </c>
       <c r="D353"/>
       <c r="E353" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>187</v>
+      <c r="A354" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D354"/>
-      <c r="E354" s="1">
-        <v>4</v>
+      <c r="E354" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B355" s="11" t="s">
         <v>15</v>
@@ -6990,12 +7009,12 @@
       </c>
       <c r="D355"/>
       <c r="E355" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B356" s="11" t="s">
         <v>15</v>
@@ -7005,12 +7024,12 @@
       </c>
       <c r="D356"/>
       <c r="E356" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>192</v>
+      <c r="A357" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>15</v>
@@ -7020,12 +7039,12 @@
       </c>
       <c r="D357"/>
       <c r="E357" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>182</v>
+      <c r="A358" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>15</v>
@@ -7035,12 +7054,12 @@
       </c>
       <c r="D358"/>
       <c r="E358" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="6" t="s">
-        <v>202</v>
+      <c r="A359" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="B359" s="11" t="s">
         <v>15</v>
@@ -7048,238 +7067,238 @@
       <c r="C359" t="s">
         <v>147</v>
       </c>
-      <c r="E359" s="4">
-        <v>6</v>
+      <c r="D359"/>
+      <c r="E359" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>167</v>
-      </c>
-      <c r="B360" s="12" t="s">
-        <v>12</v>
+        <v>191</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C360" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D360"/>
-      <c r="E360" s="18">
-        <v>2</v>
+      <c r="E360" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>154</v>
-      </c>
-      <c r="B361" s="12" t="s">
-        <v>12</v>
+      <c r="A361" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D361"/>
-      <c r="E361" s="18">
-        <v>2</v>
+      <c r="E361" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>158</v>
-      </c>
-      <c r="B362" s="12" t="s">
-        <v>12</v>
+      <c r="A362" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D362"/>
-      <c r="E362" s="18">
-        <v>2</v>
+      <c r="E362" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>152</v>
-      </c>
-      <c r="B363" s="12" t="s">
-        <v>12</v>
+      <c r="A363" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D363"/>
-      <c r="E363" s="18">
-        <v>2</v>
+      <c r="E363" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>153</v>
-      </c>
-      <c r="B364" s="12" t="s">
-        <v>12</v>
+      <c r="A364" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D364"/>
-      <c r="E364" s="18">
-        <v>2</v>
+      <c r="E364" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>160</v>
-      </c>
-      <c r="B365" s="12" t="s">
-        <v>12</v>
+      <c r="A365" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>168</v>
-      </c>
-      <c r="D365"/>
-      <c r="E365" s="18">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="E365" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>150</v>
-      </c>
-      <c r="B366" s="12" t="s">
-        <v>12</v>
+      <c r="A366" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D366"/>
-      <c r="E366" s="18">
-        <v>2</v>
+      <c r="E366" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>156</v>
-      </c>
-      <c r="B367" s="12" t="s">
-        <v>12</v>
+      <c r="A367" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D367"/>
-      <c r="E367" s="18">
-        <v>2</v>
+      <c r="E367" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>155</v>
-      </c>
-      <c r="B368" s="12" t="s">
-        <v>12</v>
+      <c r="A368" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D368"/>
-      <c r="E368" s="18">
-        <v>2</v>
+      <c r="E368" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>159</v>
-      </c>
-      <c r="B369" s="12" t="s">
-        <v>12</v>
+      <c r="A369" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D369"/>
-      <c r="E369" s="18">
-        <v>2</v>
+      <c r="E369" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>164</v>
-      </c>
-      <c r="B370" s="12" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D370"/>
-      <c r="E370" s="18">
-        <v>2</v>
+      <c r="E370" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>165</v>
-      </c>
-      <c r="B371" s="12" t="s">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D371"/>
-      <c r="E371" s="18">
-        <v>2</v>
+      <c r="E371" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>151</v>
-      </c>
-      <c r="B372" s="12" t="s">
-        <v>12</v>
+        <v>186</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D372"/>
-      <c r="E372" s="18">
-        <v>2</v>
+      <c r="E372" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>163</v>
-      </c>
-      <c r="B373" s="12" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D373"/>
-      <c r="E373" s="18">
-        <v>2</v>
+      <c r="E373" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>161</v>
-      </c>
-      <c r="B374" s="12" t="s">
-        <v>12</v>
+        <v>182</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D374"/>
-      <c r="E374" s="18">
+      <c r="E374" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B375" s="12" t="s">
         <v>12</v>
@@ -7294,7 +7313,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B376" s="12" t="s">
         <v>12</v>
@@ -7309,7 +7328,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B377" s="12" t="s">
         <v>12</v>
@@ -7323,109 +7342,257 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" s="6" t="s">
+      <c r="A378" t="s">
+        <v>152</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" t="s">
+        <v>168</v>
+      </c>
+      <c r="D378"/>
+      <c r="E378" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>153</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379" t="s">
+        <v>168</v>
+      </c>
+      <c r="D379"/>
+      <c r="E379" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>160</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" t="s">
+        <v>168</v>
+      </c>
+      <c r="D380"/>
+      <c r="E380" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>150</v>
+      </c>
+      <c r="B381" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" t="s">
+        <v>168</v>
+      </c>
+      <c r="D381"/>
+      <c r="E381" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>156</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C382" t="s">
+        <v>168</v>
+      </c>
+      <c r="D382"/>
+      <c r="E382" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>155</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" t="s">
+        <v>168</v>
+      </c>
+      <c r="D383"/>
+      <c r="E383" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>159</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" t="s">
+        <v>168</v>
+      </c>
+      <c r="D384"/>
+      <c r="E384" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>164</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" t="s">
+        <v>168</v>
+      </c>
+      <c r="D385"/>
+      <c r="E385" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>165</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" t="s">
+        <v>168</v>
+      </c>
+      <c r="D386"/>
+      <c r="E386" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>151</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" t="s">
+        <v>168</v>
+      </c>
+      <c r="D387"/>
+      <c r="E387" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>163</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C388" t="s">
+        <v>168</v>
+      </c>
+      <c r="D388"/>
+      <c r="E388" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>161</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" t="s">
+        <v>168</v>
+      </c>
+      <c r="D389"/>
+      <c r="E389" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>166</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C390" t="s">
+        <v>168</v>
+      </c>
+      <c r="D390"/>
+      <c r="E390" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>162</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" t="s">
+        <v>168</v>
+      </c>
+      <c r="D391"/>
+      <c r="E391" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>157</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" t="s">
+        <v>168</v>
+      </c>
+      <c r="D392"/>
+      <c r="E392" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B393" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E393" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B378" s="21" t="s">
+      <c r="B394" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C394" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E378" s="4">
+      <c r="E394" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B379" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E379" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384"/>
-      <c r="B384"/>
-      <c r="C384"/>
-      <c r="D384"/>
-      <c r="E384"/>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385"/>
-      <c r="B385"/>
-      <c r="C385"/>
-      <c r="D385"/>
-      <c r="E385"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386"/>
-      <c r="B386"/>
-      <c r="C386"/>
-      <c r="D386"/>
-      <c r="E386"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387"/>
-      <c r="B387"/>
-      <c r="C387"/>
-      <c r="D387"/>
-      <c r="E387"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388"/>
-      <c r="B388"/>
-      <c r="C388"/>
-      <c r="D388"/>
-      <c r="E388"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389"/>
-      <c r="B389"/>
-      <c r="C389"/>
-      <c r="D389"/>
-      <c r="E389"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390"/>
-      <c r="B390"/>
-      <c r="C390"/>
-      <c r="D390"/>
-      <c r="E390"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391"/>
-      <c r="B391"/>
-      <c r="C391"/>
-      <c r="D391"/>
-      <c r="E391"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392"/>
-      <c r="B392"/>
-      <c r="C392"/>
-      <c r="D392"/>
-      <c r="E392"/>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393"/>
-      <c r="B393"/>
-      <c r="C393"/>
-      <c r="D393"/>
-      <c r="E393"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394"/>
-      <c r="B394"/>
-      <c r="C394"/>
-      <c r="D394"/>
-      <c r="E394"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395"/>
@@ -8476,7 +8643,7 @@
   </sheetData>
   <autoFilter ref="A1:F604">
     <sortState ref="A2:F593">
-      <sortCondition ref="C1:C604"/>
+      <sortCondition ref="A1:A604"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="232">
   <si>
     <t>ID Code</t>
   </si>
@@ -628,18 +628,9 @@
     <t>H_MCo_01</t>
   </si>
   <si>
-    <t>Intercom | Puzzles | MeleeCombat |</t>
-  </si>
-  <si>
     <t>EnemyMovement | InspectObjects | Light Flicker | Hallucinations | UI Manager | DoorOpenClose | AirVent | Environment Events |</t>
   </si>
   <si>
-    <t>Humanoid | Creatures | Main Boss (Scientist) | Smiley</t>
-  </si>
-  <si>
-    <t>Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Broken stairs | Broken Elevator | Piano |</t>
-  </si>
-  <si>
     <t>F_Pi_01</t>
   </si>
   <si>
@@ -707,12 +698,27 @@
   </si>
   <si>
     <t>F_CT_05</t>
+  </si>
+  <si>
+    <t>F_R_01</t>
+  </si>
+  <si>
+    <t>Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Broken stairs | Broken Elevator | Radio |</t>
+  </si>
+  <si>
+    <t>Intercom | Puzzles | MeleeCombat | Radio |</t>
+  </si>
+  <si>
+    <t>Humanoid | Creature 1 | Creature 2 | Main Boss (Scientist) | Smiley | PigBenis (boss) |</t>
+  </si>
+  <si>
+    <t>E_PB_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,10 +887,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -907,9 +916,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -947,7 +956,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1019,7 +1028,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,8 +1316,8 @@
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1340,8 +1349,8 @@
       <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1390,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1406,8 +1415,8 @@
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1439,8 +1448,8 @@
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1501,8 +1510,8 @@
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>10</v>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1532,8 +1541,8 @@
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1543,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
@@ -1591,8 +1600,8 @@
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>10</v>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1603,7 +1612,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1619,8 +1628,8 @@
       <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1631,7 +1640,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1677,8 +1686,8 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>10</v>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1705,8 +1714,8 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -1747,7 +1756,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1763,8 +1772,8 @@
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>10</v>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -1791,8 +1800,8 @@
       <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
+      <c r="B20" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -1803,7 +1812,7 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1849,8 +1858,8 @@
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>10</v>
+      <c r="B22" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1877,8 +1886,8 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>14</v>
+      <c r="B23" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1888,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1931,8 +1940,8 @@
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>10</v>
+      <c r="B25" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1955,8 +1964,8 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>14</v>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2003,8 +2012,8 @@
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>10</v>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -2028,8 +2037,8 @@
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>14</v>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -2078,8 +2087,8 @@
       <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>10</v>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -2104,8 +2113,8 @@
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>14</v>
+      <c r="B32" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -2130,8 +2139,8 @@
       <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>15</v>
+      <c r="B33" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
@@ -2182,8 +2191,8 @@
       <c r="A35" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>10</v>
+      <c r="B35" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -2208,8 +2217,8 @@
       <c r="A36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>14</v>
+      <c r="B36" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -2234,8 +2243,8 @@
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>11</v>
+      <c r="B37" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
@@ -2260,8 +2269,8 @@
       <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>19</v>
+      <c r="B38" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -2277,8 +2286,8 @@
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>12</v>
+      <c r="B39" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -2294,8 +2303,8 @@
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>16</v>
+      <c r="B40" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -2308,11 +2317,11 @@
       <c r="J40"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>15</v>
+      <c r="B41" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
@@ -2341,8 +2350,8 @@
       <c r="A43" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>10</v>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
@@ -2356,8 +2365,8 @@
       <c r="A44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>14</v>
+      <c r="B44" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
@@ -2371,8 +2380,8 @@
       <c r="A45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>11</v>
+      <c r="B45" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -2386,8 +2395,8 @@
       <c r="A46" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>19</v>
+      <c r="B46" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
@@ -2401,8 +2410,8 @@
       <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>12</v>
+      <c r="B47" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
@@ -2416,8 +2425,8 @@
       <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>16</v>
+      <c r="B48" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
@@ -2431,8 +2440,8 @@
       <c r="A49" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>15</v>
+      <c r="B49" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
@@ -2461,8 +2470,8 @@
       <c r="A51" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>10</v>
+      <c r="B51" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
@@ -2476,8 +2485,8 @@
       <c r="A52" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>14</v>
+      <c r="B52" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
@@ -2491,8 +2500,8 @@
       <c r="A53" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>11</v>
+      <c r="B53" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
@@ -2506,8 +2515,8 @@
       <c r="A54" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>19</v>
+      <c r="B54" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
@@ -2521,8 +2530,8 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>12</v>
+      <c r="B55" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
@@ -2536,8 +2545,8 @@
       <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>16</v>
+      <c r="B56" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
@@ -2551,8 +2560,8 @@
       <c r="A57" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>15</v>
+      <c r="B57" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
@@ -2581,8 +2590,8 @@
       <c r="A59" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>10</v>
+      <c r="B59" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>38</v>
@@ -2596,8 +2605,8 @@
       <c r="A60" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>14</v>
+      <c r="B60" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>38</v>
@@ -2611,8 +2620,8 @@
       <c r="A61" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>11</v>
+      <c r="B61" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>38</v>
@@ -2626,8 +2635,8 @@
       <c r="A62" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>19</v>
+      <c r="B62" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C62" t="s">
         <v>38</v>
@@ -2641,8 +2650,8 @@
       <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>12</v>
+      <c r="B63" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>38</v>
@@ -2656,8 +2665,8 @@
       <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>16</v>
+      <c r="B64" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>38</v>
@@ -2671,8 +2680,8 @@
       <c r="A65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>15</v>
+      <c r="B65" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -2701,8 +2710,8 @@
       <c r="A67" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>10</v>
+      <c r="B67" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -2716,8 +2725,8 @@
       <c r="A68" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>14</v>
+      <c r="B68" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -2731,8 +2740,8 @@
       <c r="A69" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>11</v>
+      <c r="B69" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
@@ -2746,8 +2755,8 @@
       <c r="A70" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>19</v>
+      <c r="B70" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>39</v>
@@ -2761,8 +2770,8 @@
       <c r="A71" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>12</v>
+      <c r="B71" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>39</v>
@@ -2776,8 +2785,8 @@
       <c r="A72" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>16</v>
+      <c r="B72" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>39</v>
@@ -2788,11 +2797,11 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>15</v>
+      <c r="B73" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C73" t="s">
         <v>40</v>
@@ -2821,8 +2830,8 @@
       <c r="A75" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>10</v>
+      <c r="B75" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>40</v>
@@ -2851,8 +2860,8 @@
       <c r="A77" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>11</v>
+      <c r="B77" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C77" t="s">
         <v>40</v>
@@ -2866,38 +2875,38 @@
       <c r="A78" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>19</v>
+      <c r="B78" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C78" t="s">
         <v>40</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>61</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>12</v>
+      <c r="B79" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>40</v>
       </c>
       <c r="D79"/>
       <c r="E79" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
+      <c r="A80" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>16</v>
+      <c r="B80" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>40</v>
@@ -2908,11 +2917,11 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>14</v>
+      <c r="B81" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C81" t="s">
         <v>40</v>
@@ -2923,11 +2932,11 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>15</v>
+      <c r="A82" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>40</v>
@@ -2938,11 +2947,11 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>13</v>
+      <c r="A83" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>40</v>
@@ -2953,11 +2962,11 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>10</v>
+      <c r="A84" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>40</v>
@@ -2968,8 +2977,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
-        <v>59</v>
+      <c r="A85" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>14</v>
@@ -2983,11 +2992,11 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>11</v>
+      <c r="A86" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C86" t="s">
         <v>40</v>
@@ -2998,23 +3007,23 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>19</v>
+      <c r="A87" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>40</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>59</v>
+      <c r="A88" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>12</v>
@@ -3028,26 +3037,26 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>16</v>
+      <c r="B89" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C89" t="s">
         <v>40</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>14</v>
+      <c r="A90" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>40</v>
@@ -3058,11 +3067,11 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>14</v>
+      <c r="A91" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>40</v>
@@ -3073,233 +3082,233 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>15</v>
+      <c r="A92" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>13</v>
+      <c r="A93" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>10</v>
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>14</v>
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>16</v>
+      <c r="A97" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>13</v>
+      <c r="A98" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>10</v>
+        <v>231</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>14</v>
+        <v>231</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>10</v>
+        <v>231</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>14</v>
+        <v>231</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>13</v>
+      <c r="A104" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>10</v>
+      <c r="A105" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>14</v>
+      <c r="A106" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106"/>
       <c r="E106" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>120</v>
+      <c r="A107" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
@@ -3313,11 +3322,11 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>10</v>
+      <c r="A108" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C108" t="s">
         <v>41</v>
@@ -3328,11 +3337,11 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>14</v>
+      <c r="A109" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C109" t="s">
         <v>41</v>
@@ -3344,10 +3353,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>41</v>
@@ -3359,37 +3368,37 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>10</v>
+        <v>121</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
       </c>
       <c r="D111"/>
       <c r="E111" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>14</v>
+        <v>121</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>13</v>
@@ -3404,10 +3413,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>41</v>
@@ -3419,10 +3428,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>41</v>
@@ -3434,7 +3443,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
@@ -3444,42 +3453,42 @@
       </c>
       <c r="D116"/>
       <c r="E116" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C117" t="s">
         <v>41</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C118" t="s">
         <v>41</v>
       </c>
       <c r="D118"/>
       <c r="E118" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>119</v>
+      <c r="A119" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
@@ -3489,129 +3498,147 @@
       </c>
       <c r="D119"/>
       <c r="E119" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>10</v>
+      <c r="A120" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C120" t="s">
         <v>41</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>14</v>
+      <c r="A121" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C121" t="s">
         <v>41</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>41</v>
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>216</v>
+      <c r="A123" t="s">
+        <v>120</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>41</v>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>41</v>
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>41</v>
+      <c r="A125" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>219</v>
+      <c r="A126" t="s">
+        <v>113</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" t="s">
         <v>41</v>
       </c>
       <c r="D126"/>
-      <c r="E126"/>
+      <c r="E126" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C127" t="s">
         <v>41</v>
       </c>
       <c r="D127"/>
       <c r="E127" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>10</v>
+      <c r="A128" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>41</v>
       </c>
       <c r="D128"/>
       <c r="E128" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>65</v>
+      <c r="A129" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>14</v>
@@ -3621,15 +3648,15 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>84</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>13</v>
+      <c r="A130" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C130" t="s">
         <v>41</v>
@@ -3640,23 +3667,23 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>84</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>10</v>
+      <c r="A131" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>41</v>
       </c>
       <c r="D131"/>
       <c r="E131" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>84</v>
+      <c r="A132" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>14</v>
@@ -3666,44 +3693,44 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>116</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>13</v>
+      <c r="A133" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C133" t="s">
         <v>41</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G133" s="14"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>10</v>
+        <v>119</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>41</v>
       </c>
       <c r="D134"/>
       <c r="E134" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G134" s="14"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>14</v>
@@ -3713,112 +3740,91 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G135" s="14"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>15</v>
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>41</v>
       </c>
       <c r="D136"/>
       <c r="E136" s="1">
-        <v>7</v>
-      </c>
-      <c r="F136"/>
+        <v>5</v>
+      </c>
       <c r="G136" s="14"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137"/>
-      <c r="E137" s="1">
-        <v>7</v>
+      <c r="A137" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G137" s="14"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" t="s">
-        <v>41</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138" s="1">
-        <v>7</v>
+      <c r="A138" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G138" s="14"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="19" t="s">
-        <v>72</v>
+      <c r="A139" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C139" t="s">
-        <v>41</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139" s="1">
-        <v>7</v>
-      </c>
-      <c r="F139"/>
+      <c r="C139" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G139" s="14"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>72</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>41</v>
-      </c>
-      <c r="D140"/>
-      <c r="E140" s="1">
-        <v>5</v>
-      </c>
-      <c r="F140"/>
+      <c r="A140" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G140" s="14"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>72</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="A141" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D141"/>
-      <c r="E141" s="1">
-        <v>5</v>
-      </c>
+      <c r="E141"/>
       <c r="G141" s="14"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>13</v>
@@ -3828,45 +3834,45 @@
       </c>
       <c r="D142"/>
       <c r="E142" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G142" s="14"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>108</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C143" t="s">
         <v>41</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G143" s="14"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>108</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C144" t="s">
         <v>41</v>
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G144" s="14"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>13</v>
@@ -3876,45 +3882,45 @@
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G145" s="14"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>111</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C146" t="s">
         <v>41</v>
       </c>
       <c r="D146"/>
       <c r="E146" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G146" s="14"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>111</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147"/>
       <c r="E147" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G147" s="14"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="19" t="s">
-        <v>100</v>
+      <c r="A148" t="s">
+        <v>116</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>13</v>
@@ -3924,128 +3930,130 @@
       </c>
       <c r="D148"/>
       <c r="E148" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G148" s="14"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>10</v>
+      <c r="A149" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149"/>
       <c r="E149" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G149" s="14"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>14</v>
+      <c r="A150" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C150" t="s">
         <v>41</v>
       </c>
       <c r="D150"/>
       <c r="E150" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G150" s="14"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>101</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>15</v>
+      <c r="A151" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G151" s="14"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>101</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>13</v>
+      <c r="A152" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C152" t="s">
         <v>41</v>
       </c>
       <c r="D152"/>
       <c r="E152" s="1">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F152"/>
       <c r="G152" s="14"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>10</v>
+      <c r="A153" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C153" t="s">
         <v>41</v>
       </c>
       <c r="D153"/>
       <c r="E153" s="1">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F153"/>
       <c r="G153" s="14"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>101</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>14</v>
+      <c r="A154" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C154" t="s">
         <v>41</v>
       </c>
       <c r="D154"/>
       <c r="E154" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G154" s="14"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>101</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C155" t="s">
         <v>41</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G155" s="14"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>69</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C156" t="s">
         <v>41</v>
@@ -4054,25 +4062,26 @@
       <c r="E156" s="1">
         <v>5</v>
       </c>
+      <c r="F156"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>10</v>
+        <v>108</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
       </c>
       <c r="D157"/>
       <c r="E157" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>14</v>
@@ -4082,42 +4091,42 @@
       </c>
       <c r="D158"/>
       <c r="E158" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>68</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C159" t="s">
         <v>41</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>68</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C160" t="s">
         <v>41</v>
       </c>
       <c r="D160"/>
       <c r="E160" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>14</v>
@@ -4127,107 +4136,117 @@
       </c>
       <c r="D161"/>
       <c r="E161" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>111</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162"/>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163"/>
-      <c r="E163"/>
-    </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>227</v>
+      <c r="A164" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" t="s">
         <v>41</v>
       </c>
       <c r="D164"/>
-      <c r="E164"/>
+      <c r="E164" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="2" t="s">
+      <c r="A165" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
         <v>41</v>
       </c>
       <c r="D165"/>
-      <c r="E165"/>
+      <c r="E165" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="2" t="s">
+      <c r="A166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
         <v>41</v>
       </c>
       <c r="D166"/>
-      <c r="E166"/>
+      <c r="E166" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>90</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C167" t="s">
         <v>41</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>90</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C168" t="s">
         <v>41</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>14</v>
@@ -4237,42 +4256,42 @@
       </c>
       <c r="D169"/>
       <c r="E169" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>110</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>41</v>
       </c>
       <c r="D170"/>
       <c r="E170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>110</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C171" t="s">
         <v>41</v>
       </c>
       <c r="D171"/>
       <c r="E171" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>14</v>
@@ -4282,42 +4301,42 @@
       </c>
       <c r="D172"/>
       <c r="E172" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>13</v>
+      <c r="A173" t="s">
+        <v>69</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C173" t="s">
         <v>41</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>10</v>
+      <c r="A174" t="s">
+        <v>68</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>41</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="19" t="s">
-        <v>128</v>
+      <c r="A175" t="s">
+        <v>68</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>14</v>
@@ -4327,25 +4346,27 @@
       </c>
       <c r="D175"/>
       <c r="E175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="2" t="s">
+      <c r="A176" t="s">
+        <v>68</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
         <v>41</v>
       </c>
       <c r="D176"/>
-      <c r="E176"/>
+      <c r="E176" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>14</v>
@@ -4358,7 +4379,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
@@ -4371,7 +4392,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>14</v>
@@ -4384,7 +4405,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>14</v>
@@ -4396,38 +4417,36 @@
       <c r="E180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>76</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="A181" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D181"/>
-      <c r="E181" s="1">
-        <v>5</v>
-      </c>
+      <c r="E181"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>76</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>41</v>
       </c>
       <c r="D182"/>
       <c r="E182" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>14</v>
@@ -4437,42 +4456,42 @@
       </c>
       <c r="D183"/>
       <c r="E183" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>13</v>
+      <c r="A184" t="s">
+        <v>90</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C184" t="s">
         <v>41</v>
       </c>
       <c r="D184"/>
       <c r="E184" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>10</v>
+      <c r="A185" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C185" t="s">
         <v>41</v>
       </c>
       <c r="D185"/>
       <c r="E185" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="19" t="s">
-        <v>91</v>
+      <c r="A186" t="s">
+        <v>110</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>14</v>
@@ -4482,42 +4501,42 @@
       </c>
       <c r="D186"/>
       <c r="E186" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>13</v>
+      <c r="A187" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C187" t="s">
         <v>41</v>
       </c>
       <c r="D187"/>
       <c r="E187" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>41</v>
       </c>
       <c r="D188"/>
       <c r="E188" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
@@ -4527,102 +4546,92 @@
       </c>
       <c r="D189"/>
       <c r="E189" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C190" t="s">
         <v>41</v>
       </c>
       <c r="D190"/>
       <c r="E190" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="A191" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D191"/>
-      <c r="E191" s="1">
-        <v>2</v>
-      </c>
+      <c r="E191"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="19" t="s">
-        <v>122</v>
+      <c r="A192" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D192"/>
-      <c r="E192" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D193"/>
-      <c r="E193" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B194" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D194"/>
-      <c r="E194" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="19" t="s">
-        <v>104</v>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D195"/>
-      <c r="E195" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="19" t="s">
-        <v>114</v>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>76</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>13</v>
@@ -4632,42 +4641,42 @@
       </c>
       <c r="D196"/>
       <c r="E196" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B197" s="15" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>76</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C197" t="s">
         <v>41</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>76</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C198" t="s">
         <v>41</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>13</v>
@@ -4680,12 +4689,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B200" s="15" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C200" t="s">
         <v>41</v>
@@ -4695,12 +4704,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>14</v>
+        <v>91</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C201" t="s">
         <v>41</v>
@@ -4710,9 +4719,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>124</v>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>13</v>
@@ -4722,43 +4731,42 @@
       </c>
       <c r="D202"/>
       <c r="E202" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>124</v>
-      </c>
-      <c r="B203" s="15" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>41</v>
       </c>
       <c r="D203"/>
       <c r="E203" s="1">
-        <v>3</v>
-      </c>
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>124</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C204" t="s">
         <v>41</v>
       </c>
       <c r="D204"/>
       <c r="E204" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>13</v>
@@ -4768,42 +4776,42 @@
       </c>
       <c r="D205"/>
       <c r="E205" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C206" t="s">
         <v>41</v>
       </c>
       <c r="D206"/>
       <c r="E206" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>14</v>
+        <v>122</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
       </c>
       <c r="D207"/>
       <c r="E207" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>13</v>
@@ -4813,42 +4821,42 @@
       </c>
       <c r="D208"/>
       <c r="E208" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>89</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C209" t="s">
         <v>41</v>
       </c>
       <c r="D209"/>
       <c r="E209" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>89</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C210" t="s">
         <v>41</v>
       </c>
       <c r="D210"/>
       <c r="E210" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>13</v>
@@ -4858,42 +4866,42 @@
       </c>
       <c r="D211"/>
       <c r="E211" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B212" s="15" t="s">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C212" t="s">
         <v>41</v>
       </c>
       <c r="D212"/>
       <c r="E212" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C213" t="s">
         <v>41</v>
       </c>
       <c r="D213"/>
       <c r="E213" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>13</v>
@@ -4903,42 +4911,42 @@
       </c>
       <c r="D214"/>
       <c r="E214" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>93</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C215" t="s">
         <v>41</v>
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>93</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="19" t="s">
-        <v>200</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>124</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
@@ -4948,42 +4956,43 @@
       </c>
       <c r="D217"/>
       <c r="E217" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>124</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C218" t="s">
         <v>41</v>
       </c>
       <c r="D218"/>
       <c r="E218" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>124</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C219" t="s">
         <v>41</v>
       </c>
       <c r="D219"/>
       <c r="E219" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="19" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>13</v>
@@ -4993,42 +5002,42 @@
       </c>
       <c r="D220"/>
       <c r="E220" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B221" s="15" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C221" t="s">
         <v>41</v>
       </c>
       <c r="D221"/>
       <c r="E221" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C222" t="s">
         <v>41</v>
       </c>
       <c r="D222"/>
       <c r="E222" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>13</v>
@@ -5038,42 +5047,42 @@
       </c>
       <c r="D223"/>
       <c r="E223" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>80</v>
-      </c>
-      <c r="B224" s="15" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C224" t="s">
         <v>41</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>80</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C225" t="s">
         <v>41</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="19" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
@@ -5088,10 +5097,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B227" s="15" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C227" t="s">
         <v>41</v>
@@ -5103,10 +5112,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>14</v>
+        <v>107</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
@@ -5118,7 +5127,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>13</v>
@@ -5128,42 +5137,42 @@
       </c>
       <c r="D229"/>
       <c r="E229" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>95</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C230" t="s">
         <v>41</v>
       </c>
       <c r="D230"/>
       <c r="E230" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>95</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>14</v>
+        <v>93</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C231" t="s">
         <v>41</v>
       </c>
       <c r="D231"/>
       <c r="E231" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>112</v>
+      <c r="A232" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
@@ -5173,42 +5182,42 @@
       </c>
       <c r="D232"/>
       <c r="E232" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>112</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>10</v>
+      <c r="A233" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C233" t="s">
         <v>41</v>
       </c>
       <c r="D233"/>
       <c r="E233" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>112</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>14</v>
+      <c r="A234" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C234" t="s">
         <v>41</v>
       </c>
       <c r="D234"/>
       <c r="E234" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>78</v>
+      <c r="A235" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
@@ -5218,42 +5227,42 @@
       </c>
       <c r="D235"/>
       <c r="E235" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>78</v>
-      </c>
-      <c r="B236" s="15" t="s">
-        <v>10</v>
+      <c r="A236" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C236" t="s">
         <v>41</v>
       </c>
       <c r="D236"/>
       <c r="E236" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>78</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>14</v>
+      <c r="A237" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
       </c>
       <c r="D237"/>
       <c r="E237" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>13</v>
@@ -5263,42 +5272,42 @@
       </c>
       <c r="D238"/>
       <c r="E238" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>127</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
       </c>
       <c r="D239"/>
       <c r="E239" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>127</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C240" t="s">
         <v>41</v>
       </c>
       <c r="D240"/>
       <c r="E240" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>73</v>
+      <c r="A241" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>13</v>
@@ -5308,42 +5317,42 @@
       </c>
       <c r="D241"/>
       <c r="E241" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>73</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>10</v>
+      <c r="A242" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C242" t="s">
         <v>41</v>
       </c>
       <c r="D242"/>
       <c r="E242" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>73</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>14</v>
+      <c r="A243" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C243" t="s">
         <v>41</v>
       </c>
       <c r="D243"/>
       <c r="E243" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="19" t="s">
-        <v>74</v>
+      <c r="A244" t="s">
+        <v>95</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>13</v>
@@ -5353,42 +5362,42 @@
       </c>
       <c r="D244"/>
       <c r="E244" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B245" s="15" t="s">
-        <v>10</v>
+      <c r="A245" t="s">
+        <v>95</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C245" t="s">
         <v>41</v>
       </c>
       <c r="D245"/>
       <c r="E245" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>14</v>
+      <c r="A246" t="s">
+        <v>95</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C246" t="s">
         <v>41</v>
       </c>
       <c r="D246"/>
       <c r="E246" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>13</v>
@@ -5398,42 +5407,42 @@
       </c>
       <c r="D247"/>
       <c r="E247" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>77</v>
-      </c>
-      <c r="B248" s="15" t="s">
-        <v>10</v>
+        <v>112</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C248" t="s">
         <v>41</v>
       </c>
       <c r="D248"/>
       <c r="E248" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>77</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C249" t="s">
         <v>41</v>
       </c>
       <c r="D249"/>
       <c r="E249" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>13</v>
@@ -5443,42 +5452,42 @@
       </c>
       <c r="D250"/>
       <c r="E250" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>97</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C251" t="s">
         <v>41</v>
       </c>
       <c r="D251"/>
       <c r="E251" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>97</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="B252" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C252" t="s">
         <v>41</v>
       </c>
       <c r="D252"/>
       <c r="E252" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
@@ -5488,42 +5497,42 @@
       </c>
       <c r="D253"/>
       <c r="E253" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>81</v>
-      </c>
-      <c r="B254" s="15" t="s">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C254" t="s">
         <v>41</v>
       </c>
       <c r="D254"/>
       <c r="E254" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>81</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>14</v>
+        <v>127</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C255" t="s">
         <v>41</v>
       </c>
       <c r="D255"/>
       <c r="E255" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
@@ -5533,42 +5542,42 @@
       </c>
       <c r="D256"/>
       <c r="E256" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>82</v>
-      </c>
-      <c r="B257" s="15" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C257" t="s">
         <v>41</v>
       </c>
       <c r="D257"/>
       <c r="E257" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>82</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C258" t="s">
         <v>41</v>
       </c>
       <c r="D258"/>
       <c r="E258" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>71</v>
+      <c r="A259" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
@@ -5578,72 +5587,72 @@
       </c>
       <c r="D259"/>
       <c r="E259" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>71</v>
-      </c>
-      <c r="B260" s="15" t="s">
-        <v>10</v>
+      <c r="A260" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C260" t="s">
         <v>41</v>
       </c>
       <c r="D260"/>
       <c r="E260" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>71</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>14</v>
+      <c r="A261" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C261" t="s">
         <v>41</v>
       </c>
       <c r="D261"/>
       <c r="E261" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>15</v>
+      <c r="A262" t="s">
+        <v>77</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C262" t="s">
         <v>41</v>
       </c>
       <c r="D262"/>
       <c r="E262" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>13</v>
+      <c r="A263" t="s">
+        <v>77</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C263" t="s">
         <v>41</v>
       </c>
       <c r="D263"/>
       <c r="E263" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="19" t="s">
-        <v>79</v>
+      <c r="A264" t="s">
+        <v>77</v>
       </c>
       <c r="B264" s="15" t="s">
         <v>10</v>
@@ -5653,57 +5662,57 @@
       </c>
       <c r="D264"/>
       <c r="E264" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>14</v>
+      <c r="A265" t="s">
+        <v>97</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C265" t="s">
         <v>41</v>
       </c>
       <c r="D265"/>
       <c r="E265" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>79</v>
-      </c>
-      <c r="B266" s="12" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C266" t="s">
         <v>41</v>
       </c>
       <c r="D266"/>
       <c r="E266" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>79</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>16</v>
+        <v>97</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C267" t="s">
         <v>41</v>
       </c>
       <c r="D267"/>
       <c r="E267" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
@@ -5713,42 +5722,42 @@
       </c>
       <c r="D268"/>
       <c r="E268" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>126</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C269" t="s">
         <v>41</v>
       </c>
       <c r="D269"/>
       <c r="E269" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>126</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C270" t="s">
         <v>41</v>
       </c>
       <c r="D270"/>
       <c r="E270" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
@@ -5763,10 +5772,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>66</v>
-      </c>
-      <c r="B272" s="15" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C272" t="s">
         <v>41</v>
@@ -5778,10 +5787,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>66</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C273" t="s">
         <v>41</v>
@@ -5793,7 +5802,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
@@ -5808,10 +5817,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>66</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C275" t="s">
         <v>41</v>
@@ -5823,10 +5832,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>66</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C276" t="s">
         <v>41</v>
@@ -5837,8 +5846,8 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>103</v>
+      <c r="A277" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>13</v>
@@ -5848,27 +5857,27 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>103</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>10</v>
+      <c r="A278" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C278" t="s">
         <v>41</v>
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>103</v>
+      <c r="A279" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>14</v>
@@ -5878,199 +5887,207 @@
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>13</v>
+      <c r="A280" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C280" t="s">
         <v>41</v>
       </c>
       <c r="D280"/>
       <c r="E280" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>102</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C281" t="s">
         <v>41</v>
       </c>
       <c r="D281"/>
       <c r="E281" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>102</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C282" t="s">
         <v>41</v>
       </c>
       <c r="D282"/>
       <c r="E282" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
-        <v>207</v>
+      <c r="A283" t="s">
+        <v>126</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E283" s="4">
-        <v>7</v>
+      <c r="C283" t="s">
+        <v>41</v>
+      </c>
+      <c r="D283"/>
+      <c r="E283" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B284" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E284" s="4">
-        <v>7</v>
+      <c r="A284" t="s">
+        <v>126</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>41</v>
+      </c>
+      <c r="D284"/>
+      <c r="E284" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E285" s="4">
-        <v>7</v>
+      <c r="A285" t="s">
+        <v>126</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" t="s">
+        <v>41</v>
+      </c>
+      <c r="D285"/>
+      <c r="E285" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E286" s="4">
-        <v>7</v>
+      <c r="A286" t="s">
+        <v>66</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>41</v>
+      </c>
+      <c r="D286"/>
+      <c r="E286" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B287" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E287" s="4">
-        <v>7</v>
+      <c r="A287" t="s">
+        <v>66</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" t="s">
+        <v>41</v>
+      </c>
+      <c r="D287"/>
+      <c r="E287" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E288" s="4">
-        <v>7</v>
+      <c r="A288" t="s">
+        <v>66</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>41</v>
+      </c>
+      <c r="D288"/>
+      <c r="E288" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B289" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E289" s="4">
-        <v>7</v>
+      <c r="A289" t="s">
+        <v>103</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>41</v>
+      </c>
+      <c r="D289"/>
+      <c r="E289" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E290" s="4">
-        <v>7</v>
+      <c r="A290" t="s">
+        <v>103</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>41</v>
+      </c>
+      <c r="D290"/>
+      <c r="E290" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>67</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="B291" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C291" t="s">
         <v>41</v>
       </c>
       <c r="D291"/>
       <c r="E291" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>67</v>
-      </c>
-      <c r="B292" s="15" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C292" t="s">
         <v>41</v>
       </c>
       <c r="D292"/>
       <c r="E292" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>14</v>
@@ -6080,162 +6097,155 @@
       </c>
       <c r="D293"/>
       <c r="E293" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>109</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C294" t="s">
         <v>41</v>
       </c>
       <c r="D294"/>
       <c r="E294" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>109</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C295" t="s">
-        <v>41</v>
-      </c>
-      <c r="D295"/>
-      <c r="E295" s="1">
-        <v>2</v>
+      <c r="A295" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E295" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>109</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C296" t="s">
-        <v>41</v>
-      </c>
-      <c r="D296"/>
-      <c r="E296" s="1">
-        <v>2</v>
+      <c r="A296" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E296" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>86</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C297" t="s">
-        <v>41</v>
-      </c>
-      <c r="D297"/>
-      <c r="E297" s="1">
-        <v>4</v>
+      <c r="A297" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E297" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>86</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C298" t="s">
-        <v>41</v>
-      </c>
-      <c r="D298"/>
-      <c r="E298" s="1">
-        <v>4</v>
+      <c r="A298" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E298" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>86</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C299" t="s">
-        <v>41</v>
-      </c>
-      <c r="D299"/>
-      <c r="E299" s="1">
-        <v>4</v>
+      <c r="A299" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E299" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C300" t="s">
-        <v>41</v>
-      </c>
-      <c r="D300"/>
-      <c r="E300" s="1">
+      <c r="A300" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E300" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="19" t="s">
-        <v>99</v>
+      <c r="A301" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B301" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C301" t="s">
-        <v>41</v>
-      </c>
-      <c r="D301"/>
-      <c r="E301" s="1">
+      <c r="C301" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E301" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>14</v>
+      <c r="A302" t="s">
+        <v>67</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C302" t="s">
         <v>41</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>13</v>
+      <c r="A303" t="s">
+        <v>67</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C303" t="s">
         <v>41</v>
       </c>
       <c r="D303"/>
       <c r="E303" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="19" t="s">
-        <v>123</v>
+      <c r="A304" t="s">
+        <v>67</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>10</v>
@@ -6245,15 +6255,15 @@
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>14</v>
+      <c r="A305" t="s">
+        <v>109</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C305" t="s">
         <v>41</v>
@@ -6265,22 +6275,22 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>88</v>
-      </c>
-      <c r="B306" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C306" t="s">
         <v>41</v>
       </c>
       <c r="D306"/>
       <c r="E306" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B307" s="15" t="s">
         <v>10</v>
@@ -6290,27 +6300,26 @@
       </c>
       <c r="D307"/>
       <c r="E307" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>88</v>
-      </c>
-      <c r="B308" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C308" t="s">
-        <v>41</v>
-      </c>
-      <c r="D308"/>
-      <c r="E308" s="1">
-        <v>4</v>
+      <c r="A308" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E308" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="19" t="s">
-        <v>106</v>
+      <c r="A309" t="s">
+        <v>86</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>13</v>
@@ -6320,42 +6329,42 @@
       </c>
       <c r="D309"/>
       <c r="E309" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B310" s="15" t="s">
-        <v>10</v>
+      <c r="A310" t="s">
+        <v>86</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C310" t="s">
         <v>41</v>
       </c>
       <c r="D310"/>
       <c r="E310" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>14</v>
+      <c r="A311" t="s">
+        <v>86</v>
+      </c>
+      <c r="B311" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C311" t="s">
         <v>41</v>
       </c>
       <c r="D311"/>
       <c r="E311" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="19" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>13</v>
@@ -6365,42 +6374,42 @@
       </c>
       <c r="D312"/>
       <c r="E312" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B313" s="15" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C313" t="s">
         <v>41</v>
       </c>
       <c r="D313"/>
       <c r="E313" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C314" t="s">
         <v>41</v>
       </c>
       <c r="D314"/>
       <c r="E314" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>13</v>
@@ -6410,42 +6419,42 @@
       </c>
       <c r="D315"/>
       <c r="E315" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B316" s="15" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C316" t="s">
         <v>41</v>
       </c>
       <c r="D316"/>
       <c r="E316" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C317" t="s">
         <v>41</v>
       </c>
       <c r="D317"/>
       <c r="E317" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>13</v>
@@ -6460,10 +6469,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>85</v>
-      </c>
-      <c r="B319" s="15" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C319" t="s">
         <v>41</v>
@@ -6475,10 +6484,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>85</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C320" t="s">
         <v>41</v>
@@ -6489,8 +6498,8 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>98</v>
+      <c r="A321" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>13</v>
@@ -6500,42 +6509,42 @@
       </c>
       <c r="D321"/>
       <c r="E321" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>98</v>
-      </c>
-      <c r="B322" s="15" t="s">
-        <v>10</v>
+      <c r="A322" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C322" t="s">
         <v>41</v>
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>98</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>14</v>
+      <c r="A323" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C323" t="s">
         <v>41</v>
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>83</v>
+      <c r="A324" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>13</v>
@@ -6549,11 +6558,11 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>83</v>
-      </c>
-      <c r="B325" s="15" t="s">
-        <v>10</v>
+      <c r="A325" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C325" t="s">
         <v>41</v>
@@ -6564,11 +6573,11 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>83</v>
-      </c>
-      <c r="B326" s="8" t="s">
-        <v>14</v>
+      <c r="A326" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B326" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C326" t="s">
         <v>41</v>
@@ -6579,8 +6588,8 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>118</v>
+      <c r="A327" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>13</v>
@@ -6594,11 +6603,11 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>118</v>
-      </c>
-      <c r="B328" s="15" t="s">
-        <v>10</v>
+      <c r="A328" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C328" t="s">
         <v>41</v>
@@ -6609,11 +6618,11 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>118</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>14</v>
+      <c r="A329" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B329" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C329" t="s">
         <v>41</v>
@@ -6625,187 +6634,187 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>143</v>
-      </c>
-      <c r="B330" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C330" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>131</v>
-      </c>
-      <c r="B331" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D331"/>
       <c r="E331" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>137</v>
-      </c>
-      <c r="B332" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B332" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>144</v>
-      </c>
-      <c r="B333" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C333" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D333"/>
       <c r="E333" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>141</v>
-      </c>
-      <c r="B334" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C334" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>140</v>
-      </c>
-      <c r="B335" s="13" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C335" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D335"/>
       <c r="E335" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>145</v>
-      </c>
-      <c r="B336" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C336" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D336"/>
       <c r="E336" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>134</v>
-      </c>
-      <c r="B337" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C337" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D337"/>
       <c r="E337" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>132</v>
-      </c>
-      <c r="B338" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D338"/>
       <c r="E338" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>135</v>
-      </c>
-      <c r="B339" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C339" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D339"/>
       <c r="E339" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>136</v>
-      </c>
-      <c r="B340" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C340" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D340"/>
       <c r="E340" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>139</v>
-      </c>
-      <c r="B341" s="13" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C341" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D341"/>
       <c r="E341" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B342" s="13" t="s">
         <v>16</v>
@@ -6820,7 +6829,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B343" s="13" t="s">
         <v>16</v>
@@ -6835,7 +6844,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B344" s="13" t="s">
         <v>16</v>
@@ -6850,177 +6859,178 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>194</v>
-      </c>
-      <c r="B345" s="11" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+      <c r="B345" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D345"/>
       <c r="E345" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>183</v>
-      </c>
-      <c r="B346" s="11" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="B346" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D346"/>
       <c r="E346" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>184</v>
-      </c>
-      <c r="B347" s="11" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="B347" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D347"/>
       <c r="E347" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>185</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>15</v>
+        <v>145</v>
+      </c>
+      <c r="B348" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D348"/>
       <c r="E348" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>188</v>
-      </c>
-      <c r="B349" s="11" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="B349" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D349"/>
       <c r="E349" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>178</v>
-      </c>
-      <c r="B350" s="11" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D350"/>
       <c r="E350" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B351" s="11" t="s">
-        <v>15</v>
+      <c r="A351" t="s">
+        <v>135</v>
+      </c>
+      <c r="B351" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D351"/>
       <c r="E351" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>195</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="B352" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D352"/>
       <c r="E352" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B353" s="11" t="s">
-        <v>15</v>
+      <c r="A353" t="s">
+        <v>139</v>
+      </c>
+      <c r="B353" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D353"/>
       <c r="E353" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B354" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E354" s="4">
-        <v>7</v>
+      <c r="A354" t="s">
+        <v>130</v>
+      </c>
+      <c r="B354" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C354" t="s">
+        <v>133</v>
+      </c>
+      <c r="D354"/>
+      <c r="E354" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>179</v>
-      </c>
-      <c r="B355" s="11" t="s">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="B355" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D355"/>
       <c r="E355" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>146</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D356"/>
       <c r="E356" s="1">
@@ -7028,8 +7038,8 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="19" t="s">
-        <v>176</v>
+      <c r="A357" t="s">
+        <v>194</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>15</v>
@@ -7039,12 +7049,12 @@
       </c>
       <c r="D357"/>
       <c r="E357" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="19" t="s">
-        <v>177</v>
+      <c r="A358" t="s">
+        <v>183</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>15</v>
@@ -7054,12 +7064,12 @@
       </c>
       <c r="D358"/>
       <c r="E358" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="19" t="s">
-        <v>175</v>
+      <c r="A359" t="s">
+        <v>184</v>
       </c>
       <c r="B359" s="11" t="s">
         <v>15</v>
@@ -7069,12 +7079,12 @@
       </c>
       <c r="D359"/>
       <c r="E359" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>191</v>
+      <c r="A360" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="B360" s="11" t="s">
         <v>15</v>
@@ -7084,12 +7094,12 @@
       </c>
       <c r="D360"/>
       <c r="E360" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
-        <v>198</v>
+      <c r="A361" t="s">
+        <v>188</v>
       </c>
       <c r="B361" s="11" t="s">
         <v>15</v>
@@ -7099,12 +7109,12 @@
       </c>
       <c r="D361"/>
       <c r="E361" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="19" t="s">
-        <v>189</v>
+      <c r="A362" t="s">
+        <v>178</v>
       </c>
       <c r="B362" s="11" t="s">
         <v>15</v>
@@ -7114,12 +7124,12 @@
       </c>
       <c r="D362"/>
       <c r="E362" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
-        <v>197</v>
+      <c r="A363" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="B363" s="11" t="s">
         <v>15</v>
@@ -7129,12 +7139,12 @@
       </c>
       <c r="D363"/>
       <c r="E363" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="19" t="s">
-        <v>190</v>
+      <c r="A364" t="s">
+        <v>195</v>
       </c>
       <c r="B364" s="11" t="s">
         <v>15</v>
@@ -7144,12 +7154,12 @@
       </c>
       <c r="D364"/>
       <c r="E364" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="6" t="s">
-        <v>202</v>
+      <c r="A365" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>15</v>
@@ -7157,28 +7167,28 @@
       <c r="C365" t="s">
         <v>147</v>
       </c>
-      <c r="E365" s="4">
-        <v>6</v>
+      <c r="D365"/>
+      <c r="E365" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="19" t="s">
-        <v>173</v>
+      <c r="A366" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B366" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D366"/>
-      <c r="E366" s="1">
-        <v>6</v>
+      <c r="E366" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="19" t="s">
-        <v>172</v>
+      <c r="A367" t="s">
+        <v>179</v>
       </c>
       <c r="B367" s="11" t="s">
         <v>15</v>
@@ -7188,12 +7198,12 @@
       </c>
       <c r="D367"/>
       <c r="E367" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
-        <v>199</v>
+      <c r="A368" t="s">
+        <v>146</v>
       </c>
       <c r="B368" s="11" t="s">
         <v>15</v>
@@ -7203,12 +7213,12 @@
       </c>
       <c r="D368"/>
       <c r="E368" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B369" s="11" t="s">
         <v>15</v>
@@ -7218,12 +7228,12 @@
       </c>
       <c r="D369"/>
       <c r="E369" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>187</v>
+      <c r="A370" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>15</v>
@@ -7233,12 +7243,12 @@
       </c>
       <c r="D370"/>
       <c r="E370" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>181</v>
+      <c r="A371" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>15</v>
@@ -7248,12 +7258,12 @@
       </c>
       <c r="D371"/>
       <c r="E371" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B372" s="11" t="s">
         <v>15</v>
@@ -7263,12 +7273,12 @@
       </c>
       <c r="D372"/>
       <c r="E372" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>192</v>
+      <c r="A373" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B373" s="11" t="s">
         <v>15</v>
@@ -7278,12 +7288,12 @@
       </c>
       <c r="D373"/>
       <c r="E373" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>182</v>
+      <c r="A374" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>15</v>
@@ -7293,192 +7303,191 @@
       </c>
       <c r="D374"/>
       <c r="E374" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>167</v>
-      </c>
-      <c r="B375" s="12" t="s">
-        <v>12</v>
+      <c r="A375" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D375"/>
-      <c r="E375" s="18">
-        <v>2</v>
+      <c r="E375" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>154</v>
-      </c>
-      <c r="B376" s="12" t="s">
-        <v>12</v>
+      <c r="A376" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C376" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D376"/>
-      <c r="E376" s="18">
-        <v>2</v>
+      <c r="E376" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>158</v>
-      </c>
-      <c r="B377" s="12" t="s">
-        <v>12</v>
+      <c r="A377" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C377" t="s">
-        <v>168</v>
-      </c>
-      <c r="D377"/>
-      <c r="E377" s="18">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="E377" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>152</v>
-      </c>
-      <c r="B378" s="12" t="s">
-        <v>12</v>
+      <c r="A378" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D378"/>
-      <c r="E378" s="18">
-        <v>2</v>
+      <c r="E378" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>153</v>
-      </c>
-      <c r="B379" s="12" t="s">
-        <v>12</v>
+      <c r="A379" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C379" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D379"/>
-      <c r="E379" s="18">
-        <v>2</v>
+      <c r="E379" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>160</v>
-      </c>
-      <c r="B380" s="12" t="s">
-        <v>12</v>
+      <c r="A380" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C380" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D380"/>
-      <c r="E380" s="18">
-        <v>2</v>
+      <c r="E380" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>150</v>
-      </c>
-      <c r="B381" s="12" t="s">
-        <v>12</v>
+      <c r="A381" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D381"/>
-      <c r="E381" s="18">
-        <v>2</v>
+      <c r="E381" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>156</v>
-      </c>
-      <c r="B382" s="12" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D382"/>
-      <c r="E382" s="18">
-        <v>2</v>
+      <c r="E382" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>155</v>
-      </c>
-      <c r="B383" s="12" t="s">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D383"/>
-      <c r="E383" s="18">
-        <v>2</v>
+      <c r="E383" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>159</v>
-      </c>
-      <c r="B384" s="12" t="s">
-        <v>12</v>
+        <v>186</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D384"/>
-      <c r="E384" s="18">
-        <v>2</v>
+      <c r="E384" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>164</v>
-      </c>
-      <c r="B385" s="12" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D385"/>
-      <c r="E385" s="18">
-        <v>2</v>
+      <c r="E385" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>165</v>
-      </c>
-      <c r="B386" s="12" t="s">
-        <v>12</v>
+        <v>182</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D386"/>
-      <c r="E386" s="18">
+      <c r="E386" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>12</v>
@@ -7493,7 +7502,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>12</v>
@@ -7508,7 +7517,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>12</v>
@@ -7523,7 +7532,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>12</v>
@@ -7538,7 +7547,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>12</v>
@@ -7553,7 +7562,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>12</v>
@@ -7567,98 +7576,233 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="6" t="s">
+      <c r="A393" t="s">
+        <v>150</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" t="s">
+        <v>168</v>
+      </c>
+      <c r="D393"/>
+      <c r="E393" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>156</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C394" t="s">
+        <v>168</v>
+      </c>
+      <c r="D394"/>
+      <c r="E394" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>155</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" t="s">
+        <v>168</v>
+      </c>
+      <c r="D395"/>
+      <c r="E395" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>159</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" t="s">
+        <v>168</v>
+      </c>
+      <c r="D396"/>
+      <c r="E396" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>164</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C397" t="s">
+        <v>168</v>
+      </c>
+      <c r="D397"/>
+      <c r="E397" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>165</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C398" t="s">
+        <v>168</v>
+      </c>
+      <c r="D398"/>
+      <c r="E398" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>151</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" t="s">
+        <v>168</v>
+      </c>
+      <c r="D399"/>
+      <c r="E399" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>163</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" t="s">
+        <v>168</v>
+      </c>
+      <c r="D400"/>
+      <c r="E400" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>161</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" t="s">
+        <v>168</v>
+      </c>
+      <c r="D401"/>
+      <c r="E401" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>166</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C402" t="s">
+        <v>168</v>
+      </c>
+      <c r="D402"/>
+      <c r="E402" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>162</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C403" t="s">
+        <v>168</v>
+      </c>
+      <c r="D403"/>
+      <c r="E403" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>157</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C404" t="s">
+        <v>168</v>
+      </c>
+      <c r="D404"/>
+      <c r="E404" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B405" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B393" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E393" s="4">
+      <c r="C405" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E405" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B394" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E394" s="4">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B406" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E406" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395"/>
-      <c r="B395"/>
-      <c r="C395"/>
-      <c r="D395"/>
-      <c r="E395"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396"/>
-      <c r="B396"/>
-      <c r="C396"/>
-      <c r="D396"/>
-      <c r="E396"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D397"/>
-      <c r="E397"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D398"/>
-      <c r="E398"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D399"/>
-      <c r="E399"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D400"/>
-      <c r="E400"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D401"/>
-      <c r="E401"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D402"/>
-      <c r="E402"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D403"/>
-      <c r="E403"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D404"/>
-      <c r="E404"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D405"/>
-      <c r="E405"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D406"/>
-      <c r="E406"/>
-    </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407"/>
+      <c r="B407" s="23"/>
+      <c r="C407"/>
       <c r="D407"/>
-      <c r="E407"/>
+      <c r="E407" s="1"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408"/>
+      <c r="B408" s="23"/>
+      <c r="C408"/>
       <c r="D408"/>
-      <c r="E408"/>
+      <c r="E408" s="1"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409"/>
+      <c r="B409" s="23"/>
+      <c r="C409"/>
       <c r="D409"/>
-      <c r="E409"/>
+      <c r="E409" s="1"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D410"/>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="233">
   <si>
     <t>ID Code</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>E_PB_01</t>
+  </si>
+  <si>
+    <t>Michiel , Verschuifd want geen Tijd IVM Enemy</t>
   </si>
 </sst>
 </file>
@@ -892,8 +895,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -916,9 +919,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -956,7 +959,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -991,6 +994,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1026,9 +1046,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1204,32 +1241,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1285,7 +1322,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1312,7 +1349,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1345,7 +1382,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1378,7 +1415,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1448,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1481,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1512,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1506,7 +1543,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1574,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1568,7 +1605,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1596,7 +1633,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1624,7 +1661,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1652,7 +1689,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1682,7 +1719,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1710,7 +1747,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1740,7 +1777,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1805,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1796,7 +1833,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1861,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1854,7 +1891,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1882,7 +1919,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1912,7 +1949,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1936,7 +1973,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1960,7 +1997,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1984,7 +2021,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2008,7 +2045,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2033,7 +2070,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2058,7 +2095,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2083,7 +2120,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2109,7 +2146,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2135,7 +2172,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
@@ -2161,7 +2198,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>55</v>
       </c>
@@ -2187,7 +2224,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>55</v>
       </c>
@@ -2213,7 +2250,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>55</v>
       </c>
@@ -2239,7 +2276,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>55</v>
       </c>
@@ -2265,7 +2302,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
@@ -2282,7 +2319,7 @@
       <c r="I38" s="16"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2299,7 +2336,7 @@
       <c r="I39" s="16"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2316,7 +2353,7 @@
       <c r="I40" s="2"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>57</v>
       </c>
@@ -2331,7 +2368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>57</v>
       </c>
@@ -2361,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>57</v>
       </c>
@@ -2376,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>57</v>
       </c>
@@ -2391,7 +2428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>57</v>
       </c>
@@ -2406,7 +2443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2421,7 +2458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2436,7 +2473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>53</v>
       </c>
@@ -2451,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>53</v>
       </c>
@@ -2466,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>53</v>
       </c>
@@ -2481,7 +2518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>53</v>
       </c>
@@ -2496,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>53</v>
       </c>
@@ -2511,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>53</v>
       </c>
@@ -2526,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2541,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>54</v>
       </c>
@@ -2571,7 +2608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>54</v>
       </c>
@@ -2601,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>54</v>
       </c>
@@ -2631,7 +2668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>58</v>
       </c>
@@ -2706,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>58</v>
       </c>
@@ -2721,7 +2758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>58</v>
       </c>
@@ -2736,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>58</v>
       </c>
@@ -2751,7 +2788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>58</v>
       </c>
@@ -2766,7 +2803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -2781,7 +2818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -2796,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>61</v>
       </c>
@@ -2811,7 +2848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>61</v>
       </c>
@@ -2826,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>61</v>
       </c>
@@ -2841,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>61</v>
       </c>
@@ -2856,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>61</v>
       </c>
@@ -2871,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>61</v>
       </c>
@@ -2886,7 +2923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -2901,7 +2938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>62</v>
       </c>
@@ -2931,7 +2968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>62</v>
       </c>
@@ -2946,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>62</v>
       </c>
@@ -2961,7 +2998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +3013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>62</v>
       </c>
@@ -2991,7 +3028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>62</v>
       </c>
@@ -3006,7 +3043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>62</v>
       </c>
@@ -3021,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>62</v>
       </c>
@@ -3036,7 +3073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>59</v>
       </c>
@@ -3051,7 +3088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>59</v>
       </c>
@@ -3066,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>59</v>
       </c>
@@ -3081,7 +3118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>59</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>59</v>
       </c>
@@ -3111,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -3126,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -3141,7 +3178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -3156,7 +3193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>60</v>
       </c>
@@ -3171,7 +3208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>63</v>
       </c>
@@ -3186,7 +3223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>231</v>
       </c>
@@ -3201,7 +3238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>231</v>
       </c>
@@ -3216,7 +3253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>231</v>
       </c>
@@ -3231,7 +3268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>231</v>
       </c>
@@ -3246,7 +3283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>231</v>
       </c>
@@ -3261,7 +3298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>231</v>
       </c>
@@ -3276,7 +3313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>231</v>
       </c>
@@ -3291,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>231</v>
       </c>
@@ -3306,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>121</v>
       </c>
@@ -3321,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>121</v>
       </c>
@@ -3336,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>121</v>
       </c>
@@ -3351,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -3366,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -3396,7 +3433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>87</v>
       </c>
@@ -3411,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>87</v>
       </c>
@@ -3426,7 +3463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>87</v>
       </c>
@@ -3441,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>117</v>
       </c>
@@ -3456,7 +3493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>117</v>
       </c>
@@ -3471,7 +3508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>117</v>
       </c>
@@ -3486,8 +3523,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="19" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="7" t="s">
@@ -3500,9 +3537,12 @@
       <c r="E119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="19" t="s">
+      <c r="G119" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -3515,9 +3555,12 @@
       <c r="E120" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="19" t="s">
+      <c r="G120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="15" t="s">
@@ -3530,8 +3573,11 @@
       <c r="E121" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3546,7 +3592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -3561,7 +3607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -3576,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>113</v>
       </c>
@@ -3591,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>113</v>
       </c>
@@ -3606,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -3621,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>94</v>
       </c>
@@ -3636,7 +3682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>94</v>
       </c>
@@ -3651,7 +3697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>94</v>
       </c>
@@ -3666,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>125</v>
       </c>
@@ -3681,7 +3727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>125</v>
       </c>
@@ -3696,7 +3742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>125</v>
       </c>
@@ -3712,7 +3758,7 @@
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>119</v>
       </c>
@@ -3728,7 +3774,7 @@
       </c>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>119</v>
       </c>
@@ -3744,7 +3790,7 @@
       </c>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>119</v>
       </c>
@@ -3760,7 +3806,7 @@
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>212</v>
       </c>
@@ -3772,7 +3818,7 @@
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>213</v>
       </c>
@@ -3784,7 +3830,7 @@
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>214</v>
       </c>
@@ -3796,7 +3842,7 @@
       </c>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>215</v>
       </c>
@@ -3808,7 +3854,7 @@
       </c>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>216</v>
       </c>
@@ -3822,7 +3868,7 @@
       <c r="E141"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -3838,7 +3884,7 @@
       </c>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>65</v>
       </c>
@@ -3854,7 +3900,7 @@
       </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>65</v>
       </c>
@@ -3870,7 +3916,7 @@
       </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -3886,7 +3932,7 @@
       </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>84</v>
       </c>
@@ -3902,7 +3948,7 @@
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>84</v>
       </c>
@@ -3918,7 +3964,7 @@
       </c>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>116</v>
       </c>
@@ -3934,7 +3980,7 @@
       </c>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>116</v>
       </c>
@@ -3950,7 +3996,7 @@
       </c>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>116</v>
       </c>
@@ -3966,7 +4012,7 @@
       </c>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>72</v>
       </c>
@@ -3982,7 +4028,7 @@
       </c>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>72</v>
       </c>
@@ -3999,7 +4045,7 @@
       <c r="F152"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>72</v>
       </c>
@@ -4016,7 +4062,7 @@
       <c r="F153"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>72</v>
       </c>
@@ -4032,7 +4078,7 @@
       </c>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4048,7 +4094,7 @@
       </c>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>72</v>
       </c>
@@ -4064,7 +4110,7 @@
       </c>
       <c r="F156"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>108</v>
       </c>
@@ -4079,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>108</v>
       </c>
@@ -4094,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>108</v>
       </c>
@@ -4109,7 +4155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>111</v>
       </c>
@@ -4124,7 +4170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>111</v>
       </c>
@@ -4139,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>111</v>
       </c>
@@ -4154,7 +4200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>100</v>
       </c>
@@ -4169,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>100</v>
       </c>
@@ -4184,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>100</v>
       </c>
@@ -4199,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -4214,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>101</v>
       </c>
@@ -4229,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>101</v>
       </c>
@@ -4244,7 +4290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>101</v>
       </c>
@@ -4259,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>101</v>
       </c>
@@ -4274,7 +4320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>69</v>
       </c>
@@ -4289,7 +4335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>69</v>
       </c>
@@ -4304,7 +4350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>69</v>
       </c>
@@ -4319,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>68</v>
       </c>
@@ -4334,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>68</v>
       </c>
@@ -4349,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -4364,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>222</v>
       </c>
@@ -4377,7 +4423,7 @@
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>223</v>
       </c>
@@ -4390,7 +4436,7 @@
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>224</v>
       </c>
@@ -4403,7 +4449,7 @@
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>225</v>
       </c>
@@ -4416,7 +4462,7 @@
       <c r="D180"/>
       <c r="E180"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>226</v>
       </c>
@@ -4429,7 +4475,7 @@
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -4444,7 +4490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -4459,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -4474,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>110</v>
       </c>
@@ -4489,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>110</v>
       </c>
@@ -4504,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>110</v>
       </c>
@@ -4519,8 +4565,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="19" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -4533,9 +4579,12 @@
       <c r="E188" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="19" t="s">
+      <c r="G188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B189" s="8" t="s">
@@ -4548,9 +4597,12 @@
       <c r="E189" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="19" t="s">
+      <c r="G189" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B190" s="15" t="s">
@@ -4563,8 +4615,11 @@
       <c r="E190" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>217</v>
       </c>
@@ -4577,7 +4632,7 @@
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>218</v>
       </c>
@@ -4590,7 +4645,7 @@
       <c r="D192"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>219</v>
       </c>
@@ -4603,7 +4658,7 @@
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>220</v>
       </c>
@@ -4616,7 +4671,7 @@
       <c r="D194"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>221</v>
       </c>
@@ -4629,7 +4684,7 @@
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>76</v>
       </c>
@@ -4644,7 +4699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>76</v>
       </c>
@@ -4659,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>76</v>
       </c>
@@ -4674,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
         <v>91</v>
       </c>
@@ -4689,7 +4744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>91</v>
       </c>
@@ -4704,7 +4759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
         <v>91</v>
       </c>
@@ -4719,7 +4774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
         <v>92</v>
       </c>
@@ -4734,7 +4789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
         <v>92</v>
       </c>
@@ -4749,7 +4804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
         <v>92</v>
       </c>
@@ -4764,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
         <v>122</v>
       </c>
@@ -4779,7 +4834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
         <v>122</v>
       </c>
@@ -4794,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
         <v>122</v>
       </c>
@@ -4809,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
         <v>104</v>
       </c>
@@ -4824,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
         <v>104</v>
       </c>
@@ -4839,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
         <v>104</v>
       </c>
@@ -4854,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>114</v>
       </c>
@@ -4869,7 +4924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
         <v>114</v>
       </c>
@@ -4884,7 +4939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>114</v>
       </c>
@@ -4899,7 +4954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
         <v>115</v>
       </c>
@@ -4914,7 +4969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>115</v>
       </c>
@@ -4929,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>115</v>
       </c>
@@ -4944,7 +4999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>124</v>
       </c>
@@ -4959,7 +5014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>124</v>
       </c>
@@ -4974,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>124</v>
       </c>
@@ -4990,7 +5045,7 @@
       </c>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
         <v>70</v>
       </c>
@@ -5005,7 +5060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>70</v>
       </c>
@@ -5020,7 +5075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>70</v>
       </c>
@@ -5035,7 +5090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>89</v>
       </c>
@@ -5050,7 +5105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>89</v>
       </c>
@@ -5065,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>89</v>
       </c>
@@ -5080,7 +5135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
         <v>107</v>
       </c>
@@ -5095,7 +5150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
         <v>107</v>
       </c>
@@ -5110,7 +5165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>107</v>
       </c>
@@ -5125,7 +5180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>93</v>
       </c>
@@ -5140,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>93</v>
       </c>
@@ -5155,7 +5210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>93</v>
       </c>
@@ -5170,7 +5225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
         <v>200</v>
       </c>
@@ -5185,7 +5240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
         <v>200</v>
       </c>
@@ -5200,7 +5255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
         <v>200</v>
       </c>
@@ -5215,7 +5270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
         <v>105</v>
       </c>
@@ -5230,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
         <v>105</v>
       </c>
@@ -5245,7 +5300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
         <v>105</v>
       </c>
@@ -5260,7 +5315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>80</v>
       </c>
@@ -5275,7 +5330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>80</v>
       </c>
@@ -5290,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>80</v>
       </c>
@@ -5305,7 +5360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="19" t="s">
         <v>75</v>
       </c>
@@ -5320,7 +5375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="19" t="s">
         <v>75</v>
       </c>
@@ -5335,7 +5390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="19" t="s">
         <v>75</v>
       </c>
@@ -5350,7 +5405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>95</v>
       </c>
@@ -5365,7 +5420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>95</v>
       </c>
@@ -5380,7 +5435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>95</v>
       </c>
@@ -5395,7 +5450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>112</v>
       </c>
@@ -5410,7 +5465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>112</v>
       </c>
@@ -5425,7 +5480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>112</v>
       </c>
@@ -5440,7 +5495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>78</v>
       </c>
@@ -5455,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>78</v>
       </c>
@@ -5470,7 +5525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>78</v>
       </c>
@@ -5485,7 +5540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>127</v>
       </c>
@@ -5500,7 +5555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>127</v>
       </c>
@@ -5515,7 +5570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>127</v>
       </c>
@@ -5530,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>73</v>
       </c>
@@ -5545,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>73</v>
       </c>
@@ -5560,7 +5615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>73</v>
       </c>
@@ -5575,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="19" t="s">
         <v>74</v>
       </c>
@@ -5590,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="19" t="s">
         <v>74</v>
       </c>
@@ -5605,7 +5660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
         <v>74</v>
       </c>
@@ -5620,7 +5675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>77</v>
       </c>
@@ -5635,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>77</v>
       </c>
@@ -5650,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>77</v>
       </c>
@@ -5665,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>97</v>
       </c>
@@ -5680,7 +5735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>97</v>
       </c>
@@ -5695,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>97</v>
       </c>
@@ -5710,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>81</v>
       </c>
@@ -5725,7 +5780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>81</v>
       </c>
@@ -5740,7 +5795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>81</v>
       </c>
@@ -5755,7 +5810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>82</v>
       </c>
@@ -5770,7 +5825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>82</v>
       </c>
@@ -5785,7 +5840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>82</v>
       </c>
@@ -5800,7 +5855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>71</v>
       </c>
@@ -5815,7 +5870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>71</v>
       </c>
@@ -5830,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>71</v>
       </c>
@@ -5845,7 +5900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
         <v>79</v>
       </c>
@@ -5860,7 +5915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
         <v>79</v>
       </c>
@@ -5875,7 +5930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
         <v>79</v>
       </c>
@@ -5890,7 +5945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
         <v>79</v>
       </c>
@@ -5905,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>79</v>
       </c>
@@ -5920,7 +5975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>79</v>
       </c>
@@ -5935,7 +5990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>126</v>
       </c>
@@ -5950,7 +6005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>126</v>
       </c>
@@ -5965,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>126</v>
       </c>
@@ -5980,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>66</v>
       </c>
@@ -5995,7 +6050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>66</v>
       </c>
@@ -6010,7 +6065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>66</v>
       </c>
@@ -6025,7 +6080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>103</v>
       </c>
@@ -6040,7 +6095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>103</v>
       </c>
@@ -6055,7 +6110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>103</v>
       </c>
@@ -6070,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>102</v>
       </c>
@@ -6085,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>102</v>
       </c>
@@ -6100,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>102</v>
       </c>
@@ -6115,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>204</v>
       </c>
@@ -6129,7 +6184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>204</v>
       </c>
@@ -6143,7 +6198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>204</v>
       </c>
@@ -6157,7 +6212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>204</v>
       </c>
@@ -6171,7 +6226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>204</v>
       </c>
@@ -6185,7 +6240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>204</v>
       </c>
@@ -6199,7 +6254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>204</v>
       </c>
@@ -6213,7 +6268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>67</v>
       </c>
@@ -6228,7 +6283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>67</v>
       </c>
@@ -6243,7 +6298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>67</v>
       </c>
@@ -6258,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>109</v>
       </c>
@@ -6273,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>109</v>
       </c>
@@ -6288,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>109</v>
       </c>
@@ -6303,7 +6358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>227</v>
       </c>
@@ -6317,7 +6372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>86</v>
       </c>
@@ -6332,7 +6387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>86</v>
       </c>
@@ -6347,7 +6402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>86</v>
       </c>
@@ -6362,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="19" t="s">
         <v>99</v>
       </c>
@@ -6377,7 +6432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="19" t="s">
         <v>99</v>
       </c>
@@ -6392,7 +6447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="19" t="s">
         <v>99</v>
       </c>
@@ -6407,7 +6462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="19" t="s">
         <v>123</v>
       </c>
@@ -6422,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="19" t="s">
         <v>123</v>
       </c>
@@ -6437,7 +6492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
         <v>123</v>
       </c>
@@ -6452,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>88</v>
       </c>
@@ -6467,7 +6522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>88</v>
       </c>
@@ -6482,7 +6537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>88</v>
       </c>
@@ -6497,7 +6552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>106</v>
       </c>
@@ -6512,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
         <v>106</v>
       </c>
@@ -6527,7 +6582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>106</v>
       </c>
@@ -6542,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>64</v>
       </c>
@@ -6557,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="19" t="s">
         <v>64</v>
       </c>
@@ -6572,7 +6627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
         <v>64</v>
       </c>
@@ -6587,7 +6642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
         <v>96</v>
       </c>
@@ -6602,7 +6657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>96</v>
       </c>
@@ -6617,7 +6672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="19" t="s">
         <v>96</v>
       </c>
@@ -6632,7 +6687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>85</v>
       </c>
@@ -6647,7 +6702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>85</v>
       </c>
@@ -6662,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>85</v>
       </c>
@@ -6677,7 +6732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>98</v>
       </c>
@@ -6692,7 +6747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>98</v>
       </c>
@@ -6707,7 +6762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>98</v>
       </c>
@@ -6722,7 +6777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>83</v>
       </c>
@@ -6737,7 +6792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>83</v>
       </c>
@@ -6752,7 +6807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>83</v>
       </c>
@@ -6767,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>118</v>
       </c>
@@ -6782,7 +6837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>118</v>
       </c>
@@ -6797,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>118</v>
       </c>
@@ -6812,7 +6867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>143</v>
       </c>
@@ -6827,7 +6882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>131</v>
       </c>
@@ -6842,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>137</v>
       </c>
@@ -6857,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>144</v>
       </c>
@@ -6872,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>141</v>
       </c>
@@ -6887,7 +6942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>140</v>
       </c>
@@ -6902,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>145</v>
       </c>
@@ -6917,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>134</v>
       </c>
@@ -6932,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>132</v>
       </c>
@@ -6947,7 +7002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>135</v>
       </c>
@@ -6962,7 +7017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>136</v>
       </c>
@@ -6977,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>139</v>
       </c>
@@ -6992,7 +7047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>130</v>
       </c>
@@ -7007,7 +7062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>138</v>
       </c>
@@ -7022,7 +7077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>142</v>
       </c>
@@ -7037,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>194</v>
       </c>
@@ -7052,7 +7107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>183</v>
       </c>
@@ -7067,7 +7122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>184</v>
       </c>
@@ -7082,7 +7137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
         <v>185</v>
       </c>
@@ -7097,7 +7152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>188</v>
       </c>
@@ -7112,7 +7167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>178</v>
       </c>
@@ -7127,7 +7182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="s">
         <v>193</v>
       </c>
@@ -7142,7 +7197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>195</v>
       </c>
@@ -7157,7 +7212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>180</v>
       </c>
@@ -7172,7 +7227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>201</v>
       </c>
@@ -7186,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>179</v>
       </c>
@@ -7201,7 +7256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>146</v>
       </c>
@@ -7216,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="19" t="s">
         <v>176</v>
       </c>
@@ -7231,7 +7286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="19" t="s">
         <v>177</v>
       </c>
@@ -7246,7 +7301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="19" t="s">
         <v>175</v>
       </c>
@@ -7261,7 +7316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -7276,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>198</v>
       </c>
@@ -7291,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="19" t="s">
         <v>189</v>
       </c>
@@ -7306,7 +7361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>197</v>
       </c>
@@ -7321,7 +7376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
         <v>190</v>
       </c>
@@ -7336,7 +7391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>202</v>
       </c>
@@ -7350,7 +7405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
         <v>173</v>
       </c>
@@ -7365,7 +7420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
         <v>172</v>
       </c>
@@ -7380,7 +7435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>199</v>
       </c>
@@ -7395,7 +7450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="19" t="s">
         <v>174</v>
       </c>
@@ -7410,7 +7465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>187</v>
       </c>
@@ -7425,7 +7480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>181</v>
       </c>
@@ -7440,7 +7495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>186</v>
       </c>
@@ -7455,7 +7510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>192</v>
       </c>
@@ -7470,7 +7525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>182</v>
       </c>
@@ -7485,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>167</v>
       </c>
@@ -7500,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>154</v>
       </c>
@@ -7515,7 +7570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>158</v>
       </c>
@@ -7530,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>152</v>
       </c>
@@ -7545,7 +7600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>153</v>
       </c>
@@ -7560,7 +7615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>160</v>
       </c>
@@ -7575,7 +7630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>150</v>
       </c>
@@ -7590,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>156</v>
       </c>
@@ -7605,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>155</v>
       </c>
@@ -7620,7 +7675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>159</v>
       </c>
@@ -7635,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>164</v>
       </c>
@@ -7650,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>165</v>
       </c>
@@ -7665,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>151</v>
       </c>
@@ -7680,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>163</v>
       </c>
@@ -7695,7 +7750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>161</v>
       </c>
@@ -7710,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>166</v>
       </c>
@@ -7725,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>162</v>
       </c>
@@ -7740,7 +7795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>157</v>
       </c>
@@ -7755,7 +7810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>207</v>
       </c>
@@ -7769,7 +7824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>208</v>
       </c>
@@ -7783,517 +7838,517 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407"/>
       <c r="B407" s="23"/>
       <c r="C407"/>
       <c r="D407"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408"/>
       <c r="B408" s="23"/>
       <c r="C408"/>
       <c r="D408"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409"/>
       <c r="B409" s="23"/>
       <c r="C409"/>
       <c r="D409"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
@@ -8301,7 +8356,7 @@
       <c r="E482"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
@@ -8312,7 +8367,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
@@ -8323,7 +8378,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
@@ -8334,7 +8389,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
@@ -8345,7 +8400,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
@@ -8356,7 +8411,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
@@ -8367,7 +8422,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
@@ -8378,7 +8433,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
@@ -8389,7 +8444,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
@@ -8398,7 +8453,7 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
@@ -8407,7 +8462,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
@@ -8416,7 +8471,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
@@ -8425,7 +8480,7 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
@@ -8433,14 +8488,14 @@
       <c r="E495"/>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
@@ -8448,7 +8503,7 @@
       <c r="E497"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
@@ -8456,7 +8511,7 @@
       <c r="E498"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
@@ -8464,324 +8519,324 @@
       <c r="E499"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="16"/>
     </row>
-    <row r="580" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F580"/>
     </row>
-    <row r="581" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F581"/>
     </row>
-    <row r="582" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F582"/>
     </row>
-    <row r="583" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F583"/>
     </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F584"/>
     </row>
-    <row r="585" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F585"/>
     </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F586"/>
     </row>
-    <row r="587" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F587"/>
     </row>
-    <row r="588" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F588"/>
     </row>
-    <row r="589" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F589"/>
     </row>
-    <row r="590" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F590"/>
     </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F591"/>
     </row>
-    <row r="592" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F592"/>
     </row>
-    <row r="593" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F593"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -100,24 +100,6 @@
     <t>F. Level Design</t>
   </si>
   <si>
-    <t xml:space="preserve"> Medium Paper Stack | Small Paper Stack | Large Paper Stack | Children Drawings | Plates | Cups | Chains | Old Cleaning Supplies | Booze | </t>
-  </si>
-  <si>
-    <t>Table | Chair | Paintings | Plants | CSI tape | CSI Markers | Cell Door | InfoDesk | Old Telephone | Old Hospital Bed | Old Lampshade | Old Calendar |</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Old Cupboards | Doctor Tools Blood | Old Lockers | Empty Weapon Holder | Old TV | Newspaper | Old Stand | Old Stand Supplies | Wheelchairs |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell beds | Toilets | Sink | Bath | Shower | Kitchen | Pots | Cutlery | Electric Chair | Electric Wires | Mirrors | Bookshelf | </t>
-  </si>
-  <si>
-    <t>Fluorescent Tube | Fluorescent Wires | Cardboard Boxes | Bulletin Board | Air Vents | Food Cans | Soda Cans | Garbage Bag | Building Site Light |</t>
-  </si>
-  <si>
-    <t>Old Coffee Machine | Therapy Bed | Old Pill Shelf | Toys | Stuffed Animals | Clocks | Clipboard | Pencils | Papers | Fire Extinguisher |</t>
-  </si>
-  <si>
     <t>G. Particles</t>
   </si>
   <si>
@@ -652,9 +634,6 @@
     <t>UI Design</t>
   </si>
   <si>
-    <t xml:space="preserve">BloodTexture | DirtTexture | CracksTexture | </t>
-  </si>
-  <si>
     <t>F_BT_01</t>
   </si>
   <si>
@@ -703,9 +682,6 @@
     <t>F_R_01</t>
   </si>
   <si>
-    <t>Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Broken stairs | Broken Elevator | Radio |</t>
-  </si>
-  <si>
     <t>Intercom | Puzzles | MeleeCombat | Radio |</t>
   </si>
   <si>
@@ -716,6 +692,30 @@
   </si>
   <si>
     <t>Michiel , Verschuifd want geen Tijd IVM Enemy</t>
+  </si>
+  <si>
+    <t>Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Radio |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InfoDesk | Old Telephone | Old Hospital Bed ||</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Old Lockers | Empty Weapon Holder |  Old Stand | </t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium Paper Stack | Small Paper Stack | Large Paper Stack || Chains | Old Cleaning Supplies | Booze | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorescent Tube | Fluorescent Wires | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell beds |Kitchen | Pots | Cutlery | Electric Chair | | Mirrors | </t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +818,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -832,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,6 +899,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -902,9 +911,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF99"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF808080"/>
-      <color rgb="FF00FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1241,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,13 +1306,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1323,14 +1332,14 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
+      <c r="A3" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="1">
@@ -1350,14 +1359,14 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
+      <c r="A4" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="1">
@@ -1370,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1383,14 +1392,14 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
+      <c r="A5" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="1">
@@ -1416,14 +1425,14 @@
       <c r="R5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
+      <c r="A6" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="1">
@@ -1436,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1449,14 +1458,14 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
+      <c r="A7" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7"/>
       <c r="E7" s="1">
@@ -1469,7 +1478,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1482,14 +1491,14 @@
       <c r="R7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+      <c r="A8" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8"/>
       <c r="E8" s="1">
@@ -1500,7 +1509,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1513,14 +1522,14 @@
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
+      <c r="A9" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="1">
@@ -1531,7 +1540,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1544,14 +1553,14 @@
       <c r="R9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
+      <c r="A10" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="1">
@@ -1562,7 +1571,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1575,25 +1584,25 @@
       <c r="R10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
+      <c r="A11" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1606,14 +1615,14 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
+      <c r="A12" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="1">
@@ -1621,7 +1630,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1634,14 +1643,14 @@
       <c r="R12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
+      <c r="A13" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="1">
@@ -1649,7 +1658,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1662,14 +1671,14 @@
       <c r="R13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
+      <c r="A14" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="1">
@@ -1677,7 +1686,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1690,24 +1699,24 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
+      <c r="A15" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15"/>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1720,14 +1729,14 @@
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
+      <c r="A16" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="1">
@@ -1735,7 +1744,7 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1748,24 +1757,24 @@
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
+      <c r="A17" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1778,14 +1787,14 @@
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
+      <c r="A18" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="1">
@@ -1793,7 +1802,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1806,14 +1815,14 @@
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
+      <c r="A19" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D19"/>
       <c r="E19" s="1">
@@ -1821,7 +1830,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1834,14 +1843,14 @@
       <c r="R19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
+      <c r="A20" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20"/>
       <c r="E20" s="1">
@@ -1849,7 +1858,7 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1862,24 +1871,24 @@
       <c r="R20"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
+      <c r="A21" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1892,14 +1901,14 @@
       <c r="R21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
+      <c r="A22" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="1">
@@ -1907,7 +1916,7 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1920,24 +1929,24 @@
       <c r="R22"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
+      <c r="A23" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1950,14 +1959,14 @@
       <c r="R23"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
+      <c r="A24" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1">
@@ -1974,14 +1983,14 @@
       <c r="R24"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
+      <c r="A25" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="1">
@@ -1998,14 +2007,14 @@
       <c r="R25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
+      <c r="A26" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="1">
@@ -2022,14 +2031,14 @@
       <c r="R26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
+      <c r="A27" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2046,14 +2055,14 @@
       <c r="R27" s="17"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
+      <c r="A28" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2071,14 +2080,14 @@
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
+      <c r="A29" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2096,14 +2105,14 @@
       <c r="R29"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
+      <c r="A30" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -2121,14 +2130,14 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
+      <c r="A31" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="1">
@@ -2147,14 +2156,14 @@
       <c r="R31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>44</v>
+      <c r="A32" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="1">
@@ -2173,14 +2182,14 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>55</v>
+      <c r="A33" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="1">
@@ -2199,14 +2208,14 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>55</v>
+      <c r="A34" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="1">
@@ -2225,14 +2234,14 @@
       <c r="R34"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>55</v>
+      <c r="A35" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="1">
@@ -2251,14 +2260,14 @@
       <c r="R35"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>55</v>
+      <c r="A36" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="1">
@@ -2277,14 +2286,14 @@
       <c r="R36"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>55</v>
+      <c r="A37" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="1">
@@ -2303,14 +2312,14 @@
       <c r="R37"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>55</v>
+      <c r="A38" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="1">
@@ -2320,14 +2329,14 @@
       <c r="J38"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="A39" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="1">
@@ -2337,14 +2346,14 @@
       <c r="J39"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>55</v>
+      <c r="A40" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="1">
@@ -2354,14 +2363,14 @@
       <c r="J40"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>57</v>
+      <c r="A41" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="1">
@@ -2369,14 +2378,14 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>57</v>
+      <c r="A42" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="1">
@@ -2384,14 +2393,14 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>57</v>
+      <c r="A43" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="1">
@@ -2399,14 +2408,14 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>57</v>
+      <c r="A44" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="1">
@@ -2414,14 +2423,14 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>57</v>
+      <c r="A45" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="1">
@@ -2429,14 +2438,14 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>57</v>
+      <c r="A46" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="1">
@@ -2444,14 +2453,14 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>57</v>
+      <c r="A47" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="1">
@@ -2459,14 +2468,14 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
+      <c r="A48" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="1">
@@ -2474,14 +2483,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>53</v>
+      <c r="A49" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="1">
@@ -2489,14 +2498,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>53</v>
+      <c r="A50" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="1">
@@ -2504,14 +2513,14 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>53</v>
+      <c r="A51" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D51"/>
       <c r="E51" s="1">
@@ -2519,14 +2528,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>53</v>
+      <c r="A52" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="1">
@@ -2534,14 +2543,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>53</v>
+      <c r="A53" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D53"/>
       <c r="E53" s="1">
@@ -2549,14 +2558,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>53</v>
+      <c r="A54" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D54"/>
       <c r="E54" s="1">
@@ -2564,14 +2573,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
+      <c r="A55" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="1">
@@ -2579,14 +2588,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>53</v>
+      <c r="A56" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D56"/>
       <c r="E56" s="1">
@@ -2594,14 +2603,14 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>54</v>
+      <c r="A57" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D57"/>
       <c r="E57" s="1">
@@ -2609,14 +2618,14 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>54</v>
+      <c r="A58" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D58"/>
       <c r="E58" s="1">
@@ -2624,14 +2633,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>54</v>
+      <c r="A59" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D59"/>
       <c r="E59" s="1">
@@ -2639,14 +2648,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>54</v>
+      <c r="A60" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D60"/>
       <c r="E60" s="1">
@@ -2654,14 +2663,14 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>54</v>
+      <c r="A61" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D61"/>
       <c r="E61" s="1">
@@ -2669,14 +2678,14 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>54</v>
+      <c r="A62" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D62"/>
       <c r="E62" s="1">
@@ -2684,14 +2693,14 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>54</v>
+      <c r="A63" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D63"/>
       <c r="E63" s="1">
@@ -2699,14 +2708,14 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>54</v>
+      <c r="A64" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D64"/>
       <c r="E64" s="1">
@@ -2714,14 +2723,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>58</v>
+      <c r="A65" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1">
@@ -2729,14 +2738,14 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>58</v>
+      <c r="A66" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1">
@@ -2744,14 +2753,14 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>58</v>
+      <c r="A67" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="1">
@@ -2759,14 +2768,14 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>58</v>
+      <c r="A68" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="1">
@@ -2774,14 +2783,14 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>58</v>
+      <c r="A69" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="1">
@@ -2789,14 +2798,14 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>58</v>
+      <c r="A70" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="1">
@@ -2804,14 +2813,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>58</v>
+      <c r="A71" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D71"/>
       <c r="E71" s="1">
@@ -2819,14 +2828,14 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>58</v>
+      <c r="A72" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="1">
@@ -2834,14 +2843,14 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>61</v>
+      <c r="A73" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="1">
@@ -2849,14 +2858,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>61</v>
+      <c r="A74" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="1">
@@ -2864,14 +2873,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>61</v>
+      <c r="A75" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D75"/>
       <c r="E75" s="1">
@@ -2879,14 +2888,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>61</v>
+      <c r="A76" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D76"/>
       <c r="E76" s="1">
@@ -2894,14 +2903,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>61</v>
+      <c r="A77" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="1">
@@ -2909,14 +2918,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>61</v>
+      <c r="A78" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1">
@@ -2924,14 +2933,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>61</v>
+      <c r="A79" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D79"/>
       <c r="E79" s="1">
@@ -2939,14 +2948,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>61</v>
+      <c r="A80" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D80"/>
       <c r="E80" s="1">
@@ -2954,14 +2963,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>62</v>
+      <c r="A81" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D81"/>
       <c r="E81" s="1">
@@ -2969,14 +2978,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>62</v>
+      <c r="A82" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D82"/>
       <c r="E82" s="1">
@@ -2984,14 +2993,14 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>62</v>
+      <c r="A83" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D83"/>
       <c r="E83" s="1">
@@ -2999,14 +3008,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>62</v>
+      <c r="A84" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="1">
@@ -3014,14 +3023,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>62</v>
+      <c r="A85" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="1">
@@ -3029,14 +3038,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>62</v>
+      <c r="A86" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="1">
@@ -3044,14 +3053,14 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>62</v>
+      <c r="A87" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="1">
@@ -3059,14 +3068,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>62</v>
+      <c r="A88" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="1">
@@ -3074,14 +3083,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>59</v>
+      <c r="A89" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="1">
@@ -3089,14 +3098,14 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>59</v>
+      <c r="A90" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="1">
@@ -3104,14 +3113,14 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>59</v>
+      <c r="A91" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="1">
@@ -3119,14 +3128,14 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>59</v>
+      <c r="A92" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="1">
@@ -3134,14 +3143,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>59</v>
+      <c r="A93" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="1">
@@ -3149,14 +3158,14 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>59</v>
+      <c r="A94" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D94"/>
       <c r="E94" s="1">
@@ -3164,14 +3173,14 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>59</v>
+      <c r="A95" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D95"/>
       <c r="E95" s="1">
@@ -3179,14 +3188,14 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>59</v>
+      <c r="A96" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D96"/>
       <c r="E96" s="1">
@@ -3194,14 +3203,14 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>60</v>
+      <c r="A97" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D97"/>
       <c r="E97" s="1">
@@ -3209,14 +3218,14 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>63</v>
+      <c r="A98" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D98"/>
       <c r="E98" s="1">
@@ -3224,14 +3233,14 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
-        <v>231</v>
+      <c r="A99" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="1">
@@ -3239,14 +3248,14 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>231</v>
+      <c r="A100" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="1">
@@ -3254,14 +3263,14 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>231</v>
+      <c r="A101" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D101"/>
       <c r="E101" s="1">
@@ -3269,14 +3278,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>231</v>
+      <c r="A102" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="1">
@@ -3284,14 +3293,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>231</v>
+      <c r="A103" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D103"/>
       <c r="E103" s="1">
@@ -3299,14 +3308,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>231</v>
+      <c r="A104" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D104"/>
       <c r="E104" s="1">
@@ -3314,14 +3323,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>231</v>
+      <c r="A105" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D105"/>
       <c r="E105" s="1">
@@ -3329,14 +3338,14 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>231</v>
+      <c r="A106" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D106"/>
       <c r="E106" s="1">
@@ -3345,13 +3354,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D107"/>
       <c r="E107" s="1">
@@ -3360,13 +3369,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D108"/>
       <c r="E108" s="1">
@@ -3375,13 +3384,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D109"/>
       <c r="E109" s="1">
@@ -3390,13 +3399,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D110"/>
       <c r="E110" s="1">
@@ -3405,13 +3414,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D111"/>
       <c r="E111" s="1">
@@ -3420,13 +3429,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1">
@@ -3435,13 +3444,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="1">
@@ -3450,13 +3459,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D114"/>
       <c r="E114" s="1">
@@ -3465,13 +3474,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D115"/>
       <c r="E115" s="1">
@@ -3479,14 +3488,14 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
-        <v>117</v>
+      <c r="A116" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D116"/>
       <c r="E116" s="1">
@@ -3494,14 +3503,14 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>117</v>
+      <c r="A117" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D117"/>
       <c r="E117" s="1">
@@ -3509,14 +3518,14 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
-        <v>117</v>
+      <c r="A118" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D118"/>
       <c r="E118" s="1">
@@ -3524,68 +3533,68 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>129</v>
+      <c r="A119" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="1">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>129</v>
+      <c r="A120" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>129</v>
+      <c r="A121" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="1">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="1">
@@ -3594,13 +3603,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D123"/>
       <c r="E123" s="1">
@@ -3609,13 +3618,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D124"/>
       <c r="E124" s="1">
@@ -3623,14 +3632,14 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>113</v>
+      <c r="A125" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D125"/>
       <c r="E125" s="1">
@@ -3638,14 +3647,14 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>113</v>
+      <c r="A126" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D126"/>
       <c r="E126" s="1">
@@ -3653,14 +3662,14 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>113</v>
+      <c r="A127" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D127"/>
       <c r="E127" s="1">
@@ -3668,14 +3677,14 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>94</v>
+      <c r="A128" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D128"/>
       <c r="E128" s="1">
@@ -3683,14 +3692,14 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>94</v>
+      <c r="A129" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D129"/>
       <c r="E129" s="1">
@@ -3698,14 +3707,14 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
-        <v>94</v>
+      <c r="A130" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D130"/>
       <c r="E130" s="1">
@@ -3714,13 +3723,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D131"/>
       <c r="E131" s="1">
@@ -3729,13 +3738,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D132"/>
       <c r="E132" s="1">
@@ -3744,13 +3753,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="1">
@@ -3760,13 +3769,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D134"/>
       <c r="E134" s="1">
@@ -3776,13 +3785,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D135"/>
       <c r="E135" s="1">
@@ -3792,13 +3801,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D136"/>
       <c r="E136" s="1">
@@ -3807,76 +3816,76 @@
       <c r="G136" s="14"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>212</v>
+      <c r="A137" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G137" s="14"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>213</v>
+      <c r="A138" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G138" s="14"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>214</v>
+      <c r="A139" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" s="14"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>215</v>
+      <c r="A140" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G140" s="14"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>216</v>
+      <c r="A141" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D141"/>
       <c r="E141"/>
       <c r="G141" s="14"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>65</v>
+      <c r="A142" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D142"/>
       <c r="E142" s="1">
@@ -3885,14 +3894,14 @@
       <c r="G142" s="14"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>65</v>
+      <c r="A143" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="1">
@@ -3901,14 +3910,14 @@
       <c r="G143" s="14"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>65</v>
+      <c r="A144" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D144"/>
       <c r="E144" s="1">
@@ -3918,13 +3927,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D145"/>
       <c r="E145" s="1">
@@ -3934,13 +3943,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D146"/>
       <c r="E146" s="1">
@@ -3950,13 +3959,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D147"/>
       <c r="E147" s="1">
@@ -3966,13 +3975,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D148"/>
       <c r="E148" s="1">
@@ -3982,13 +3991,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D149"/>
       <c r="E149" s="1">
@@ -3998,13 +4007,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D150"/>
       <c r="E150" s="1">
@@ -4014,13 +4023,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="1">
@@ -4030,13 +4039,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D152"/>
       <c r="E152" s="1">
@@ -4047,13 +4056,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D153"/>
       <c r="E153" s="1">
@@ -4064,13 +4073,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B154" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D154"/>
       <c r="E154" s="1">
@@ -4080,13 +4089,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D155"/>
       <c r="E155" s="1">
@@ -4096,13 +4105,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D156"/>
       <c r="E156" s="1">
@@ -4111,14 +4120,14 @@
       <c r="F156"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>108</v>
+      <c r="A157" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D157"/>
       <c r="E157" s="1">
@@ -4126,14 +4135,14 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>108</v>
+      <c r="A158" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="1">
@@ -4141,14 +4150,14 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>108</v>
+      <c r="A159" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1">
@@ -4156,14 +4165,14 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>111</v>
+      <c r="A160" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D160"/>
       <c r="E160" s="1">
@@ -4171,14 +4180,14 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>111</v>
+      <c r="A161" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D161"/>
       <c r="E161" s="1">
@@ -4186,14 +4195,14 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>111</v>
+      <c r="A162" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D162"/>
       <c r="E162" s="1">
@@ -4202,13 +4211,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D163"/>
       <c r="E163" s="1">
@@ -4217,13 +4226,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D164"/>
       <c r="E164" s="1">
@@ -4232,13 +4241,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D165"/>
       <c r="E165" s="1">
@@ -4247,13 +4256,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D166"/>
       <c r="E166" s="1">
@@ -4262,13 +4271,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1">
@@ -4277,13 +4286,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1">
@@ -4292,13 +4301,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D169"/>
       <c r="E169" s="1">
@@ -4307,13 +4316,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D170"/>
       <c r="E170" s="1">
@@ -4321,14 +4330,14 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>69</v>
+      <c r="A171" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D171"/>
       <c r="E171" s="1">
@@ -4336,14 +4345,14 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>69</v>
+      <c r="A172" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D172"/>
       <c r="E172" s="1">
@@ -4351,14 +4360,14 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>69</v>
+      <c r="A173" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1">
@@ -4366,14 +4375,14 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>68</v>
+      <c r="A174" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="1">
@@ -4381,14 +4390,14 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>68</v>
+      <c r="A175" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D175"/>
       <c r="E175" s="1">
@@ -4396,14 +4405,14 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>68</v>
+      <c r="A176" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D176"/>
       <c r="E176" s="1">
@@ -4411,79 +4420,79 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>222</v>
+      <c r="A177" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D177"/>
       <c r="E177"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>223</v>
+      <c r="A178" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D178"/>
       <c r="E178"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>224</v>
+      <c r="A179" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D179"/>
       <c r="E179"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>225</v>
+      <c r="A180" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D180"/>
       <c r="E180"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>226</v>
+      <c r="A181" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D181"/>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D182"/>
       <c r="E182" s="1">
@@ -4492,13 +4501,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D183"/>
       <c r="E183" s="1">
@@ -4507,13 +4516,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B184" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D184"/>
       <c r="E184" s="1">
@@ -4521,14 +4530,14 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>110</v>
+      <c r="A185" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D185"/>
       <c r="E185" s="1">
@@ -4536,14 +4545,14 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>110</v>
+      <c r="A186" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D186"/>
       <c r="E186" s="1">
@@ -4551,14 +4560,14 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>110</v>
+      <c r="A187" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="B187" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D187"/>
       <c r="E187" s="1">
@@ -4567,132 +4576,132 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D188"/>
       <c r="E188" s="1">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D189"/>
       <c r="E189" s="1">
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B190" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D190"/>
       <c r="E190" s="1">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>217</v>
+      <c r="A191" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D191"/>
       <c r="E191"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>218</v>
+      <c r="A192" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D192"/>
       <c r="E192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>219</v>
+      <c r="A193" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D193"/>
       <c r="E193"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>220</v>
+      <c r="A194" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D194"/>
       <c r="E194"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>221</v>
+      <c r="A195" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D195"/>
       <c r="E195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D196"/>
       <c r="E196" s="1">
@@ -4701,13 +4710,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="1">
@@ -4716,13 +4725,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B198" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
@@ -4731,13 +4740,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D199"/>
       <c r="E199" s="1">
@@ -4746,13 +4755,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D200"/>
       <c r="E200" s="1">
@@ -4761,13 +4770,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B201" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D201"/>
       <c r="E201" s="1">
@@ -4776,13 +4785,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D202"/>
       <c r="E202" s="1">
@@ -4791,13 +4800,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D203"/>
       <c r="E203" s="1">
@@ -4806,13 +4815,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B204" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D204"/>
       <c r="E204" s="1">
@@ -4821,13 +4830,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D205"/>
       <c r="E205" s="1">
@@ -4836,13 +4845,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D206"/>
       <c r="E206" s="1">
@@ -4851,13 +4860,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D207"/>
       <c r="E207" s="1">
@@ -4865,14 +4874,14 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="19" t="s">
-        <v>104</v>
+      <c r="A208" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D208"/>
       <c r="E208" s="1">
@@ -4880,14 +4889,14 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="19" t="s">
-        <v>104</v>
+      <c r="A209" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D209"/>
       <c r="E209" s="1">
@@ -4895,14 +4904,14 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="19" t="s">
-        <v>104</v>
+      <c r="A210" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D210"/>
       <c r="E210" s="1">
@@ -4911,13 +4920,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D211"/>
       <c r="E211" s="1">
@@ -4926,13 +4935,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D212"/>
       <c r="E212" s="1">
@@ -4941,13 +4950,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D213"/>
       <c r="E213" s="1">
@@ -4956,13 +4965,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D214"/>
       <c r="E214" s="1">
@@ -4971,13 +4980,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D215"/>
       <c r="E215" s="1">
@@ -4986,13 +4995,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D216"/>
       <c r="E216" s="1">
@@ -5000,14 +5009,14 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>124</v>
+      <c r="A217" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D217"/>
       <c r="E217" s="1">
@@ -5015,14 +5024,14 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>124</v>
+      <c r="A218" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D218"/>
       <c r="E218" s="1">
@@ -5030,14 +5039,14 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>124</v>
+      <c r="A219" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="B219" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D219"/>
       <c r="E219" s="1">
@@ -5047,13 +5056,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D220"/>
       <c r="E220" s="1">
@@ -5062,13 +5071,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C221" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D221"/>
       <c r="E221" s="1">
@@ -5077,13 +5086,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D222"/>
       <c r="E222" s="1">
@@ -5092,13 +5101,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D223"/>
       <c r="E223" s="1">
@@ -5107,13 +5116,13 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="1">
@@ -5122,13 +5131,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B225" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="1">
@@ -5137,13 +5146,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D226"/>
       <c r="E226" s="1">
@@ -5152,13 +5161,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D227"/>
       <c r="E227" s="1">
@@ -5167,13 +5176,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B228" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D228"/>
       <c r="E228" s="1">
@@ -5181,14 +5190,14 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>93</v>
+      <c r="A229" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D229"/>
       <c r="E229" s="1">
@@ -5196,14 +5205,14 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>93</v>
+      <c r="A230" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D230"/>
       <c r="E230" s="1">
@@ -5211,14 +5220,14 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>93</v>
+      <c r="A231" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="B231" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D231"/>
       <c r="E231" s="1">
@@ -5227,13 +5236,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D232"/>
       <c r="E232" s="1">
@@ -5242,13 +5251,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D233"/>
       <c r="E233" s="1">
@@ -5257,13 +5266,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D234"/>
       <c r="E234" s="1">
@@ -5272,13 +5281,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D235"/>
       <c r="E235" s="1">
@@ -5287,13 +5296,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D236"/>
       <c r="E236" s="1">
@@ -5302,13 +5311,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D237"/>
       <c r="E237" s="1">
@@ -5316,14 +5325,14 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>80</v>
+      <c r="A238" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D238"/>
       <c r="E238" s="1">
@@ -5331,14 +5340,14 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>80</v>
+      <c r="A239" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C239" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D239"/>
       <c r="E239" s="1">
@@ -5346,14 +5355,14 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>80</v>
+      <c r="A240" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="B240" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D240"/>
       <c r="E240" s="1">
@@ -5361,14 +5370,14 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="19" t="s">
-        <v>75</v>
+      <c r="A241" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D241"/>
       <c r="E241" s="1">
@@ -5376,14 +5385,14 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="19" t="s">
-        <v>75</v>
+      <c r="A242" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D242"/>
       <c r="E242" s="1">
@@ -5391,14 +5400,14 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="19" t="s">
-        <v>75</v>
+      <c r="A243" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="B243" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D243"/>
       <c r="E243" s="1">
@@ -5406,14 +5415,14 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>95</v>
+      <c r="A244" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D244"/>
       <c r="E244" s="1">
@@ -5421,14 +5430,14 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>95</v>
+      <c r="A245" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D245"/>
       <c r="E245" s="1">
@@ -5436,14 +5445,14 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>95</v>
+      <c r="A246" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="B246" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D246"/>
       <c r="E246" s="1">
@@ -5452,13 +5461,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D247"/>
       <c r="E247" s="1">
@@ -5467,13 +5476,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D248"/>
       <c r="E248" s="1">
@@ -5482,13 +5491,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B249" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D249"/>
       <c r="E249" s="1">
@@ -5496,14 +5505,14 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>78</v>
+      <c r="A250" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D250"/>
       <c r="E250" s="1">
@@ -5511,14 +5520,14 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>78</v>
+      <c r="A251" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D251"/>
       <c r="E251" s="1">
@@ -5526,14 +5535,14 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>78</v>
+      <c r="A252" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B252" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D252"/>
       <c r="E252" s="1">
@@ -5542,13 +5551,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D253"/>
       <c r="E253" s="1">
@@ -5557,13 +5566,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D254"/>
       <c r="E254" s="1">
@@ -5572,13 +5581,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B255" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D255"/>
       <c r="E255" s="1">
@@ -5587,13 +5596,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D256"/>
       <c r="E256" s="1">
@@ -5602,13 +5611,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C257" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D257"/>
       <c r="E257" s="1">
@@ -5617,13 +5626,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B258" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D258"/>
       <c r="E258" s="1">
@@ -5632,13 +5641,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D259"/>
       <c r="E259" s="1">
@@ -5647,13 +5656,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D260"/>
       <c r="E260" s="1">
@@ -5662,13 +5671,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B261" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D261"/>
       <c r="E261" s="1">
@@ -5677,13 +5686,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D262"/>
       <c r="E262" s="1">
@@ -5692,13 +5701,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D263"/>
       <c r="E263" s="1">
@@ -5707,13 +5716,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B264" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D264"/>
       <c r="E264" s="1">
@@ -5721,14 +5730,14 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>97</v>
+      <c r="A265" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D265"/>
       <c r="E265" s="1">
@@ -5736,14 +5745,14 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>97</v>
+      <c r="A266" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C266" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D266"/>
       <c r="E266" s="1">
@@ -5751,14 +5760,14 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>97</v>
+      <c r="A267" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B267" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D267"/>
       <c r="E267" s="1">
@@ -5767,13 +5776,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D268"/>
       <c r="E268" s="1">
@@ -5782,13 +5791,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C269" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D269"/>
       <c r="E269" s="1">
@@ -5797,13 +5806,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B270" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D270"/>
       <c r="E270" s="1">
@@ -5812,13 +5821,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D271"/>
       <c r="E271" s="1">
@@ -5827,13 +5836,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D272"/>
       <c r="E272" s="1">
@@ -5842,13 +5851,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B273" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D273"/>
       <c r="E273" s="1">
@@ -5857,13 +5866,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D274"/>
       <c r="E274" s="1">
@@ -5872,13 +5881,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D275"/>
       <c r="E275" s="1">
@@ -5887,13 +5896,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B276" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D276"/>
       <c r="E276" s="1">
@@ -5901,14 +5910,14 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="19" t="s">
-        <v>79</v>
+      <c r="A277" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D277"/>
       <c r="E277" s="1">
@@ -5916,14 +5925,14 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="19" t="s">
-        <v>79</v>
+      <c r="A278" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C278" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D278"/>
       <c r="E278" s="1">
@@ -5931,14 +5940,14 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="19" t="s">
-        <v>79</v>
+      <c r="A279" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="1">
@@ -5946,14 +5955,14 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="19" t="s">
-        <v>79</v>
+      <c r="A280" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B280" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D280"/>
       <c r="E280" s="1">
@@ -5961,14 +5970,14 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>79</v>
+      <c r="A281" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B281" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C281" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D281"/>
       <c r="E281" s="1">
@@ -5976,14 +5985,14 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>79</v>
+      <c r="A282" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B282" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C282" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D282"/>
       <c r="E282" s="1">
@@ -5992,13 +6001,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D283"/>
       <c r="E283" s="1">
@@ -6007,13 +6016,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D284"/>
       <c r="E284" s="1">
@@ -6022,13 +6031,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B285" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D285"/>
       <c r="E285" s="1">
@@ -6036,14 +6045,14 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>66</v>
+      <c r="A286" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D286"/>
       <c r="E286" s="1">
@@ -6051,14 +6060,14 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>66</v>
+      <c r="A287" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D287"/>
       <c r="E287" s="1">
@@ -6066,14 +6075,14 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>66</v>
+      <c r="A288" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B288" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D288"/>
       <c r="E288" s="1">
@@ -6081,14 +6090,14 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>103</v>
+      <c r="A289" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D289"/>
       <c r="E289" s="1">
@@ -6096,14 +6105,14 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>103</v>
+      <c r="A290" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D290"/>
       <c r="E290" s="1">
@@ -6111,14 +6120,14 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>103</v>
+      <c r="A291" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="B291" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D291"/>
       <c r="E291" s="1">
@@ -6127,13 +6136,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D292"/>
       <c r="E292" s="1">
@@ -6142,13 +6151,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D293"/>
       <c r="E293" s="1">
@@ -6157,13 +6166,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B294" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D294"/>
       <c r="E294" s="1">
@@ -6172,13 +6181,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E295" s="4">
         <v>7</v>
@@ -6186,13 +6195,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E296" s="4">
         <v>7</v>
@@ -6200,13 +6209,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B297" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E297" s="4">
         <v>7</v>
@@ -6214,13 +6223,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E298" s="4">
         <v>7</v>
@@ -6228,13 +6237,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B299" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E299" s="4">
         <v>7</v>
@@ -6242,13 +6251,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E300" s="4">
         <v>7</v>
@@ -6256,13 +6265,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B301" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E301" s="4">
         <v>7</v>
@@ -6270,13 +6279,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1">
@@ -6285,13 +6294,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D303"/>
       <c r="E303" s="1">
@@ -6300,13 +6309,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B304" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D304"/>
       <c r="E304" s="1">
@@ -6314,14 +6323,14 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>109</v>
+      <c r="A305" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C305" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D305"/>
       <c r="E305" s="1">
@@ -6329,14 +6338,14 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>109</v>
+      <c r="A306" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C306" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D306"/>
       <c r="E306" s="1">
@@ -6344,14 +6353,14 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>109</v>
+      <c r="A307" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B307" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D307"/>
       <c r="E307" s="1">
@@ -6360,27 +6369,27 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E308" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>86</v>
+      <c r="A309" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C309" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D309"/>
       <c r="E309" s="1">
@@ -6388,14 +6397,14 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>86</v>
+      <c r="A310" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D310"/>
       <c r="E310" s="1">
@@ -6403,14 +6412,14 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>86</v>
+      <c r="A311" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="B311" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D311"/>
       <c r="E311" s="1">
@@ -6418,14 +6427,14 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="19" t="s">
-        <v>99</v>
+      <c r="A312" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D312"/>
       <c r="E312" s="1">
@@ -6433,14 +6442,14 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="19" t="s">
-        <v>99</v>
+      <c r="A313" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D313"/>
       <c r="E313" s="1">
@@ -6448,14 +6457,14 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="19" t="s">
-        <v>99</v>
+      <c r="A314" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B314" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D314"/>
       <c r="E314" s="1">
@@ -6464,13 +6473,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D315"/>
       <c r="E315" s="1">
@@ -6479,13 +6488,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C316" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D316"/>
       <c r="E316" s="1">
@@ -6494,13 +6503,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B317" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D317"/>
       <c r="E317" s="1">
@@ -6509,13 +6518,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C318" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D318"/>
       <c r="E318" s="1">
@@ -6524,13 +6533,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C319" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D319"/>
       <c r="E319" s="1">
@@ -6539,13 +6548,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B320" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D320"/>
       <c r="E320" s="1">
@@ -6554,13 +6563,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C321" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D321"/>
       <c r="E321" s="1">
@@ -6569,13 +6578,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C322" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D322"/>
       <c r="E322" s="1">
@@ -6584,13 +6593,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B323" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D323"/>
       <c r="E323" s="1">
@@ -6598,14 +6607,14 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="19" t="s">
-        <v>64</v>
+      <c r="A324" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D324"/>
       <c r="E324" s="1">
@@ -6613,14 +6622,14 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="19" t="s">
-        <v>64</v>
+      <c r="A325" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D325"/>
       <c r="E325" s="1">
@@ -6628,14 +6637,14 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="19" t="s">
-        <v>64</v>
+      <c r="A326" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B326" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D326"/>
       <c r="E326" s="1">
@@ -6644,13 +6653,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C327" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D327"/>
       <c r="E327" s="1">
@@ -6659,13 +6668,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D328"/>
       <c r="E328" s="1">
@@ -6674,13 +6683,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B329" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C329" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D329"/>
       <c r="E329" s="1">
@@ -6689,13 +6698,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C330" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D330"/>
       <c r="E330" s="1">
@@ -6704,13 +6713,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D331"/>
       <c r="E331" s="1">
@@ -6719,13 +6728,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B332" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D332"/>
       <c r="E332" s="1">
@@ -6733,14 +6742,14 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>98</v>
+      <c r="A333" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C333" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D333"/>
       <c r="E333" s="1">
@@ -6748,14 +6757,14 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>98</v>
+      <c r="A334" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C334" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D334"/>
       <c r="E334" s="1">
@@ -6763,14 +6772,14 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>98</v>
+      <c r="A335" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="B335" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C335" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D335"/>
       <c r="E335" s="1">
@@ -6779,13 +6788,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C336" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D336"/>
       <c r="E336" s="1">
@@ -6794,13 +6803,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C337" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D337"/>
       <c r="E337" s="1">
@@ -6809,13 +6818,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B338" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D338"/>
       <c r="E338" s="1">
@@ -6824,13 +6833,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C339" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D339"/>
       <c r="E339" s="1">
@@ -6839,13 +6848,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C340" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D340"/>
       <c r="E340" s="1">
@@ -6854,13 +6863,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B341" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C341" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D341"/>
       <c r="E341" s="1">
@@ -6869,13 +6878,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B342" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D342"/>
       <c r="E342" s="1">
@@ -6884,13 +6893,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B343" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D343"/>
       <c r="E343" s="1">
@@ -6899,13 +6908,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B344" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D344"/>
       <c r="E344" s="1">
@@ -6914,13 +6923,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D345"/>
       <c r="E345" s="1">
@@ -6929,13 +6938,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B346" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D346"/>
       <c r="E346" s="1">
@@ -6944,13 +6953,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D347"/>
       <c r="E347" s="1">
@@ -6959,13 +6968,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B348" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D348"/>
       <c r="E348" s="1">
@@ -6974,13 +6983,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D349"/>
       <c r="E349" s="1">
@@ -6989,13 +6998,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B350" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D350"/>
       <c r="E350" s="1">
@@ -7004,13 +7013,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B351" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D351"/>
       <c r="E351" s="1">
@@ -7019,13 +7028,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B352" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D352"/>
       <c r="E352" s="1">
@@ -7034,13 +7043,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D353"/>
       <c r="E353" s="1">
@@ -7049,13 +7058,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B354" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C354" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D354"/>
       <c r="E354" s="1">
@@ -7064,13 +7073,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D355"/>
       <c r="E355" s="1">
@@ -7079,13 +7088,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B356" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D356"/>
       <c r="E356" s="1">
@@ -7094,13 +7103,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D357"/>
       <c r="E357" s="1">
@@ -7109,13 +7118,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C358" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D358"/>
       <c r="E358" s="1">
@@ -7124,13 +7133,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B359" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D359"/>
       <c r="E359" s="1">
@@ -7139,13 +7148,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B360" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C360" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D360"/>
       <c r="E360" s="1">
@@ -7154,13 +7163,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B361" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D361"/>
       <c r="E361" s="1">
@@ -7169,13 +7178,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B362" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D362"/>
       <c r="E362" s="1">
@@ -7184,13 +7193,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B363" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D363"/>
       <c r="E363" s="1">
@@ -7199,13 +7208,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B364" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D364"/>
       <c r="E364" s="1">
@@ -7214,13 +7223,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D365"/>
       <c r="E365" s="1">
@@ -7229,13 +7238,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B366" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E366" s="4">
         <v>7</v>
@@ -7243,13 +7252,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B367" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D367"/>
       <c r="E367" s="1">
@@ -7258,13 +7267,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B368" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D368"/>
       <c r="E368" s="1">
@@ -7273,13 +7282,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B369" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D369"/>
       <c r="E369" s="1">
@@ -7288,13 +7297,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D370"/>
       <c r="E370" s="1">
@@ -7303,13 +7312,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D371"/>
       <c r="E371" s="1">
@@ -7318,13 +7327,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B372" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D372"/>
       <c r="E372" s="1">
@@ -7333,13 +7342,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B373" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D373"/>
       <c r="E373" s="1">
@@ -7348,13 +7357,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D374"/>
       <c r="E374" s="1">
@@ -7363,13 +7372,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B375" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D375"/>
       <c r="E375" s="1">
@@ -7378,13 +7387,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B376" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C376" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D376"/>
       <c r="E376" s="1">
@@ -7393,13 +7402,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B377" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C377" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E377" s="4">
         <v>6</v>
@@ -7407,13 +7416,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B378" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D378"/>
       <c r="E378" s="1">
@@ -7422,13 +7431,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B379" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C379" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D379"/>
       <c r="E379" s="1">
@@ -7437,13 +7446,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B380" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C380" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D380"/>
       <c r="E380" s="1">
@@ -7452,13 +7461,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B381" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D381"/>
       <c r="E381" s="1">
@@ -7467,13 +7476,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B382" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D382"/>
       <c r="E382" s="1">
@@ -7482,13 +7491,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B383" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D383"/>
       <c r="E383" s="1">
@@ -7497,13 +7506,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B384" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D384"/>
       <c r="E384" s="1">
@@ -7512,13 +7521,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B385" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D385"/>
       <c r="E385" s="1">
@@ -7527,13 +7536,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B386" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D386"/>
       <c r="E386" s="1">
@@ -7542,13 +7551,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D387"/>
       <c r="E387" s="18">
@@ -7557,13 +7566,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D388"/>
       <c r="E388" s="18">
@@ -7572,13 +7581,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C389" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D389"/>
       <c r="E389" s="18">
@@ -7587,13 +7596,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C390" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D390"/>
       <c r="E390" s="18">
@@ -7602,13 +7611,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D391"/>
       <c r="E391" s="18">
@@ -7617,13 +7626,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C392" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D392"/>
       <c r="E392" s="18">
@@ -7632,13 +7641,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C393" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D393"/>
       <c r="E393" s="18">
@@ -7647,13 +7656,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C394" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D394"/>
       <c r="E394" s="18">
@@ -7662,13 +7671,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B395" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D395"/>
       <c r="E395" s="18">
@@ -7677,13 +7686,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B396" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C396" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D396"/>
       <c r="E396" s="18">
@@ -7692,13 +7701,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B397" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C397" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D397"/>
       <c r="E397" s="18">
@@ -7707,13 +7716,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B398" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C398" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D398"/>
       <c r="E398" s="18">
@@ -7722,13 +7731,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B399" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C399" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D399"/>
       <c r="E399" s="18">
@@ -7737,13 +7746,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B400" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C400" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D400"/>
       <c r="E400" s="18">
@@ -7752,13 +7761,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B401" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C401" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D401"/>
       <c r="E401" s="18">
@@ -7767,13 +7776,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B402" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C402" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D402"/>
       <c r="E402" s="18">
@@ -7782,13 +7791,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B403" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C403" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D403"/>
       <c r="E403" s="18">
@@ -7797,13 +7806,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B404" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C404" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D404"/>
       <c r="E404" s="18">
@@ -7812,13 +7821,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E405" s="4">
         <v>6</v>
@@ -7826,13 +7835,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B406" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E406" s="4">
         <v>6</v>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="233">
   <si>
     <t>ID Code</t>
   </si>
@@ -307,9 +307,6 @@
     <t>F_Cli_01</t>
   </si>
   <si>
-    <t>F_Pe_01</t>
-  </si>
-  <si>
     <t>F_Pa_01</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>Michiel , Verschuifd want geen Tijd IVM Enemy</t>
   </si>
   <si>
-    <t>Old Washing Machine | Old Dryer | Dirty Clothes | Bloody Clothes | Washing Bags | Washing Supplies | Radio |</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -716,6 +710,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cell beds |Kitchen | Pots | Cutlery | Electric Chair | | Mirrors | </t>
+  </si>
+  <si>
+    <t>F_Po_01</t>
+  </si>
+  <si>
+    <t>Washing Supplies | Radio |</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1478,7 +1478,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1598,11 +1598,11 @@
         <v>3</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1771,10 +1771,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1885,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>19</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>13</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>11</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>14</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>10</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>15</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>16</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>12</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>14</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>10</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>15</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>16</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>12</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>14</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>10</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
@@ -3547,12 +3547,12 @@
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>14</v>
@@ -3565,12 +3565,12 @@
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>10</v>
@@ -3583,12 +3583,12 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>14</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>10</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>13</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>14</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>10</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>13</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>14</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>10</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>13</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>14</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>10</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>14</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>14</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>14</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>14</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>14</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>13</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>14</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>10</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>13</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>14</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>10</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>13</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>14</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>10</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>14</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>14</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>14</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>14</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>14</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>13</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>14</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" s="15" t="s">
         <v>10</v>
@@ -4575,8 +4575,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
-        <v>122</v>
+      <c r="A188" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>13</v>
@@ -4589,12 +4589,12 @@
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
-        <v>122</v>
+      <c r="A189" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>14</v>
@@ -4607,12 +4607,12 @@
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="s">
-        <v>122</v>
+      <c r="A190" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="B190" s="15" t="s">
         <v>10</v>
@@ -4625,12 +4625,12 @@
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>14</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>14</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>14</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>14</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>14</v>
@@ -4829,8 +4829,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="19" t="s">
-        <v>116</v>
+      <c r="A205" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>13</v>
@@ -4844,8 +4844,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="19" t="s">
-        <v>116</v>
+      <c r="A206" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>14</v>
@@ -4859,8 +4859,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="19" t="s">
-        <v>116</v>
+      <c r="A207" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>10</v>
@@ -4874,8 +4874,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="24" t="s">
-        <v>98</v>
+      <c r="A208" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>13</v>
@@ -4889,8 +4889,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="24" t="s">
-        <v>98</v>
+      <c r="A209" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>14</v>
@@ -4904,8 +4904,8 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="24" t="s">
-        <v>98</v>
+      <c r="A210" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>10</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>13</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>14</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>10</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>13</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>14</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>10</v>
@@ -5009,8 +5009,8 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="24" t="s">
-        <v>118</v>
+      <c r="A217" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>13</v>
@@ -5024,8 +5024,8 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="24" t="s">
-        <v>118</v>
+      <c r="A218" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>14</v>
@@ -5039,8 +5039,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="24" t="s">
-        <v>118</v>
+      <c r="A219" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B219" s="15" t="s">
         <v>10</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>13</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>14</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B228" s="15" t="s">
         <v>10</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>13</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>14</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>10</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>13</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>14</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>10</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>13</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>14</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B249" s="15" t="s">
         <v>10</v>
@@ -5550,8 +5550,8 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>121</v>
+      <c r="A253" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>13</v>
@@ -5565,8 +5565,8 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>121</v>
+      <c r="A254" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>14</v>
@@ -5580,8 +5580,8 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>121</v>
+      <c r="A255" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B255" s="15" t="s">
         <v>10</v>
@@ -5640,7 +5640,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="19" t="s">
+      <c r="A259" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B259" s="7" t="s">
@@ -5655,7 +5655,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="19" t="s">
+      <c r="A260" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B260" s="8" t="s">
@@ -5670,7 +5670,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="19" t="s">
+      <c r="A261" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B261" s="15" t="s">
@@ -6001,7 +6001,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>13</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>14</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B285" s="15" t="s">
         <v>10</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>13</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>14</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B291" s="15" t="s">
         <v>10</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>13</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>14</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="B294" s="15" t="s">
         <v>10</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>19</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>13</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B297" s="13" t="s">
         <v>16</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>11</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B299" s="12" t="s">
         <v>12</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>14</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B301" s="15" t="s">
         <v>10</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>13</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>14</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B307" s="15" t="s">
         <v>10</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>15</v>
@@ -6472,8 +6472,8 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="19" t="s">
-        <v>117</v>
+      <c r="A315" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>13</v>
@@ -6487,8 +6487,8 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="19" t="s">
-        <v>117</v>
+      <c r="A316" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>14</v>
@@ -6502,8 +6502,8 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="19" t="s">
-        <v>117</v>
+      <c r="A317" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="B317" s="15" t="s">
         <v>10</v>
@@ -6517,9 +6517,6 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>82</v>
-      </c>
       <c r="B318" s="7" t="s">
         <v>13</v>
       </c>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>13</v>
@@ -6578,7 +6575,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>14</v>
@@ -6593,7 +6590,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B323" s="15" t="s">
         <v>10</v>
@@ -6787,7 +6784,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B336" s="7" t="s">
@@ -6802,7 +6799,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B337" s="8" t="s">
@@ -6817,7 +6814,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B338" s="15" t="s">
@@ -6833,7 +6830,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>13</v>
@@ -6848,7 +6845,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>14</v>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B341" s="15" t="s">
         <v>10</v>
@@ -6878,13 +6875,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B342" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D342"/>
       <c r="E342" s="1">
@@ -6893,13 +6890,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B343" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D343"/>
       <c r="E343" s="1">
@@ -6908,13 +6905,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B344" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D344"/>
       <c r="E344" s="1">
@@ -6923,13 +6920,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D345"/>
       <c r="E345" s="1">
@@ -6938,13 +6935,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B346" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D346"/>
       <c r="E346" s="1">
@@ -6953,13 +6950,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D347"/>
       <c r="E347" s="1">
@@ -6968,13 +6965,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B348" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D348"/>
       <c r="E348" s="1">
@@ -6983,13 +6980,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D349"/>
       <c r="E349" s="1">
@@ -6998,13 +6995,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B350" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D350"/>
       <c r="E350" s="1">
@@ -7013,13 +7010,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B351" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D351"/>
       <c r="E351" s="1">
@@ -7028,13 +7025,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B352" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D352"/>
       <c r="E352" s="1">
@@ -7043,13 +7040,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D353"/>
       <c r="E353" s="1">
@@ -7058,13 +7055,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B354" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C354" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D354"/>
       <c r="E354" s="1">
@@ -7073,13 +7070,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D355"/>
       <c r="E355" s="1">
@@ -7088,13 +7085,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B356" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D356"/>
       <c r="E356" s="1">
@@ -7103,13 +7100,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D357"/>
       <c r="E357" s="1">
@@ -7118,13 +7115,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C358" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D358"/>
       <c r="E358" s="1">
@@ -7133,13 +7130,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B359" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D359"/>
       <c r="E359" s="1">
@@ -7148,13 +7145,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B360" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C360" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D360"/>
       <c r="E360" s="1">
@@ -7163,13 +7160,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B361" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C361" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D361"/>
       <c r="E361" s="1">
@@ -7178,13 +7175,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B362" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D362"/>
       <c r="E362" s="1">
@@ -7193,13 +7190,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B363" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D363"/>
       <c r="E363" s="1">
@@ -7208,13 +7205,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B364" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C364" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D364"/>
       <c r="E364" s="1">
@@ -7223,13 +7220,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D365"/>
       <c r="E365" s="1">
@@ -7238,13 +7235,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B366" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E366" s="4">
         <v>7</v>
@@ -7252,13 +7249,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B367" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D367"/>
       <c r="E367" s="1">
@@ -7267,13 +7264,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B368" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C368" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D368"/>
       <c r="E368" s="1">
@@ -7282,13 +7279,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B369" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C369" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D369"/>
       <c r="E369" s="1">
@@ -7297,13 +7294,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C370" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D370"/>
       <c r="E370" s="1">
@@ -7312,13 +7309,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C371" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D371"/>
       <c r="E371" s="1">
@@ -7327,13 +7324,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B372" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C372" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D372"/>
       <c r="E372" s="1">
@@ -7342,13 +7339,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B373" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C373" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D373"/>
       <c r="E373" s="1">
@@ -7357,13 +7354,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D374"/>
       <c r="E374" s="1">
@@ -7372,13 +7369,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B375" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D375"/>
       <c r="E375" s="1">
@@ -7387,13 +7384,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B376" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C376" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D376"/>
       <c r="E376" s="1">
@@ -7402,13 +7399,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B377" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C377" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E377" s="4">
         <v>6</v>
@@ -7416,13 +7413,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B378" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D378"/>
       <c r="E378" s="1">
@@ -7431,13 +7428,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B379" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C379" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D379"/>
       <c r="E379" s="1">
@@ -7446,13 +7443,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B380" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C380" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D380"/>
       <c r="E380" s="1">
@@ -7461,13 +7458,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B381" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D381"/>
       <c r="E381" s="1">
@@ -7476,13 +7473,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B382" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D382"/>
       <c r="E382" s="1">
@@ -7491,13 +7488,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B383" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D383"/>
       <c r="E383" s="1">
@@ -7506,13 +7503,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B384" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D384"/>
       <c r="E384" s="1">
@@ -7521,13 +7518,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B385" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D385"/>
       <c r="E385" s="1">
@@ -7536,13 +7533,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B386" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D386"/>
       <c r="E386" s="1">
@@ -7551,13 +7548,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D387"/>
       <c r="E387" s="18">
@@ -7566,13 +7563,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D388"/>
       <c r="E388" s="18">
@@ -7581,13 +7578,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B389" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C389" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D389"/>
       <c r="E389" s="18">
@@ -7596,13 +7593,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B390" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C390" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D390"/>
       <c r="E390" s="18">
@@ -7611,13 +7608,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D391"/>
       <c r="E391" s="18">
@@ -7626,13 +7623,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C392" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D392"/>
       <c r="E392" s="18">
@@ -7641,13 +7638,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C393" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D393"/>
       <c r="E393" s="18">
@@ -7656,13 +7653,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B394" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C394" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D394"/>
       <c r="E394" s="18">
@@ -7671,13 +7668,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B395" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D395"/>
       <c r="E395" s="18">
@@ -7686,13 +7683,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B396" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C396" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D396"/>
       <c r="E396" s="18">
@@ -7701,13 +7698,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B397" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C397" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D397"/>
       <c r="E397" s="18">
@@ -7716,13 +7713,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B398" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C398" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D398"/>
       <c r="E398" s="18">
@@ -7731,13 +7728,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B399" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C399" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D399"/>
       <c r="E399" s="18">
@@ -7746,13 +7743,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B400" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C400" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D400"/>
       <c r="E400" s="18">
@@ -7761,13 +7758,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B401" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C401" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D401"/>
       <c r="E401" s="18">
@@ -7776,13 +7773,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B402" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C402" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D402"/>
       <c r="E402" s="18">
@@ -7791,13 +7788,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B403" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C403" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D403"/>
       <c r="E403" s="18">
@@ -7806,13 +7803,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B404" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C404" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D404"/>
       <c r="E404" s="18">
@@ -7821,13 +7818,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E405" s="4">
         <v>6</v>
@@ -7835,13 +7832,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B406" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B406" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E406" s="4">
         <v>6</v>

--- a/Algemeen/Asset List FPS.xlsx
+++ b/Algemeen/Asset List FPS.xlsx
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
